--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luisa Restrepo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222EEAC2-0EBA-4469-8767-97254633ACE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A72F2F7-05EF-4FEA-BD94-29464C255F12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="8" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="627">
   <si>
     <t>respondent_id</t>
   </si>
@@ -755,9 +755,6 @@
     <t>H03</t>
   </si>
   <si>
-    <t>The size of the projects is a factor that influences software reuse success</t>
-  </si>
-  <si>
     <t>H04</t>
   </si>
   <si>
@@ -869,24 +866,12 @@
     <t>H26</t>
   </si>
   <si>
-    <t>The type of reused device is a factor that influences software reuse success</t>
-  </si>
-  <si>
-    <t>H27</t>
-  </si>
-  <si>
     <t>The origin of reusable assets is a factor that influences software reuse success</t>
   </si>
   <si>
     <t>Having a specific role for the process of software reuse is a factor that influences software reuse success</t>
   </si>
   <si>
-    <t>The methods, methodologies and practices used in the software process is a factor that influences software reuse success</t>
-  </si>
-  <si>
-    <t>The programming paradigm is a factor that influences software reuse success</t>
-  </si>
-  <si>
     <t>The programming language is a factor that influences software reuse success</t>
   </si>
   <si>
@@ -1974,6 +1959,12 @@
   </si>
   <si>
     <t>Directa</t>
+  </si>
+  <si>
+    <t>The methods, methodologies, practices and programming paradigm used in the software process is a factor that influences software reuse success</t>
+  </si>
+  <si>
+    <t>The type of reused assets is a factor that influences software reuse success</t>
   </si>
 </sst>
 </file>
@@ -2771,8 +2762,8 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla3" displayName="Tabla3" ref="A1:M68" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:M68" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M68">
-    <sortCondition ref="D1:D68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:M57">
+    <sortCondition ref="E1:E68"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Dimension"/>
@@ -3104,19 +3095,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>602</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3138,13 +3129,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3158,7 +3149,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3172,7 +3163,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3186,7 +3177,7 @@
         <v>145</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3194,16 +3185,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="C7" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="D7" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
@@ -3220,7 +3211,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
@@ -3237,7 +3228,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E9" s="26">
         <v>1</v>
@@ -3254,7 +3245,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E10" s="26">
         <v>1</v>
@@ -3271,7 +3262,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E11" s="26">
         <v>1</v>
@@ -3288,7 +3279,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E12" s="26">
         <v>1</v>
@@ -3305,7 +3296,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -3322,7 +3313,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
@@ -3339,7 +3330,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E15" s="26">
         <v>1</v>
@@ -3356,7 +3347,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
@@ -3373,7 +3364,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
@@ -3390,7 +3381,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E18" s="26">
         <v>1</v>
@@ -3407,7 +3398,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E19" s="26">
         <v>1</v>
@@ -3424,7 +3415,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E20" s="26">
         <v>1</v>
@@ -3441,7 +3432,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E21" s="26">
         <v>1</v>
@@ -3458,7 +3449,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E22" s="26">
         <v>1</v>
@@ -3475,7 +3466,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E23" s="26">
         <v>1</v>
@@ -3492,7 +3483,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3506,7 +3497,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E25" s="26">
         <v>1</v>
@@ -3523,7 +3514,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E26" s="26">
         <v>1</v>
@@ -3540,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E27" s="26">
         <v>1</v>
@@ -3557,7 +3548,7 @@
         <v>65</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E28" s="26">
         <v>1</v>
@@ -3574,7 +3565,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E29" s="26">
         <v>1</v>
@@ -3591,7 +3582,7 @@
         <v>67</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E30" s="26">
         <v>1</v>
@@ -3602,13 +3593,13 @@
         <v>103</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3616,13 +3607,13 @@
         <v>104</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -3633,13 +3624,13 @@
         <v>105</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E33">
         <v>11</v>
@@ -3650,13 +3641,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3664,13 +3655,13 @@
         <v>107</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E35">
         <v>13</v>
@@ -3681,13 +3672,13 @@
         <v>108</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -3698,13 +3689,13 @@
         <v>109</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -3715,13 +3706,13 @@
         <v>110</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E38">
         <v>17</v>
@@ -3733,13 +3724,13 @@
         <v>111</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -3750,13 +3741,13 @@
         <v>112</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E40">
         <v>12</v>
@@ -3767,13 +3758,13 @@
         <v>113</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E41">
         <v>13</v>
@@ -3784,13 +3775,13 @@
         <v>114</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E42">
         <v>14</v>
@@ -3801,13 +3792,13 @@
         <v>115</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E43">
         <v>14</v>
@@ -3818,13 +3809,13 @@
         <v>116</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -3835,13 +3826,13 @@
         <v>117</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -3852,13 +3843,13 @@
         <v>118</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -3869,13 +3860,13 @@
         <v>119</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -3886,13 +3877,13 @@
         <v>120</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3900,13 +3891,13 @@
         <v>121</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3920,7 +3911,7 @@
         <v>70</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3934,7 +3925,7 @@
         <v>71</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3948,7 +3939,7 @@
         <v>74</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -3956,13 +3947,13 @@
         <v>165</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E53" s="43">
         <v>12</v>
@@ -3973,13 +3964,13 @@
         <v>125</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E54">
         <v>12</v>
@@ -3990,13 +3981,13 @@
         <v>132</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E55">
         <v>7</v>
@@ -4013,7 +4004,7 @@
         <v>37</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4024,10 +4015,10 @@
         <v>141</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D57" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4041,7 +4032,7 @@
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,7 +4046,7 @@
         <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4069,7 +4060,7 @@
         <v>72</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4083,7 +4074,7 @@
         <v>73</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4097,7 +4088,7 @@
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -4129,10 +4120,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4140,10 +4131,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4151,10 +4142,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4162,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4173,10 +4164,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4184,10 +4175,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4195,10 +4186,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4206,10 +4197,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4217,10 +4208,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4228,10 +4219,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4239,10 +4230,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4250,10 +4241,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4261,10 +4252,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4272,10 +4263,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4283,10 +4274,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4294,10 +4285,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4305,10 +4296,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4316,10 +4307,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4327,10 +4318,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4338,10 +4329,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4349,10 +4340,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4360,7 +4351,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>1</v>
@@ -4371,10 +4362,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4382,10 +4373,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4393,10 +4384,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4404,10 +4395,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4415,10 +4406,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,10 +4417,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4437,10 +4428,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4448,10 +4439,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4459,10 +4450,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4470,10 +4461,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4481,10 +4472,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4492,10 +4483,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4503,10 +4494,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4514,10 +4505,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4525,10 +4516,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4536,10 +4527,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4547,10 +4538,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4558,10 +4549,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4569,10 +4560,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4580,10 +4571,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4591,10 +4582,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4602,10 +4593,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4613,10 +4604,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4624,10 +4615,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4635,10 +4626,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4646,10 +4637,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,10 +4648,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4668,10 +4659,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4679,10 +4670,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,10 +4681,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4701,10 +4692,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4712,10 +4703,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4723,10 +4714,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,10 +4725,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4745,10 +4736,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4756,10 +4747,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,10 +4758,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4778,10 +4769,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,10 +4780,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,10 +4791,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D62" s="35"/>
     </row>
@@ -4812,10 +4803,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4823,10 +4814,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4834,10 +4825,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4845,10 +4836,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4856,10 +4847,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4867,10 +4858,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4878,10 +4869,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4889,10 +4880,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4900,10 +4891,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4911,10 +4902,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4922,10 +4913,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4933,10 +4924,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4944,10 +4935,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4955,10 +4946,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4966,10 +4957,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4977,10 +4968,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4988,10 +4979,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -4999,7 +4990,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>2</v>
@@ -5010,10 +5001,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5021,7 +5012,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>3</v>
@@ -5032,10 +5023,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5043,10 +5034,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5054,7 +5045,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>4</v>
@@ -5065,7 +5056,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>5</v>
@@ -5076,7 +5067,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>6</v>
@@ -5087,10 +5078,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5098,10 +5089,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5109,10 +5100,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5120,10 +5111,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5131,10 +5122,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5142,10 +5133,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5153,10 +5144,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5164,7 +5155,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C95" s="36" t="s">
         <v>7</v>
@@ -5175,10 +5166,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -5186,10 +5177,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -5197,10 +5188,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5208,10 +5199,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5219,10 +5210,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5230,10 +5221,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5241,10 +5232,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5252,10 +5243,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5263,10 +5254,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="50" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5274,10 +5265,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="50" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5285,10 +5276,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="50" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5296,10 +5287,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="50" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5307,7 +5298,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="50" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>7</v>
@@ -5318,10 +5309,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="50" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5329,10 +5320,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="50" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5340,10 +5331,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="50" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5351,10 +5342,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5362,10 +5353,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5373,10 +5364,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="50" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5384,10 +5375,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="50" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5395,7 +5386,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="50" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C116" s="25" t="s">
         <v>1</v>
@@ -5406,10 +5397,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="50" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C117" s="36" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5417,10 +5408,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5428,10 +5419,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5439,10 +5430,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5450,10 +5441,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -5461,7 +5452,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>7</v>
@@ -5472,10 +5463,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5483,10 +5474,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5494,10 +5485,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C125" s="44" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5505,10 +5496,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -5516,10 +5507,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5527,10 +5518,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5538,10 +5529,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5549,7 +5540,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>1</v>
@@ -5560,10 +5551,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5571,10 +5562,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5582,10 +5573,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5593,10 +5584,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C134" s="44" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5604,10 +5595,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C135" s="44" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5615,10 +5606,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5626,10 +5617,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5637,10 +5628,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5648,10 +5639,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C139" s="44" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5659,10 +5650,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5670,10 +5661,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5681,10 +5672,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5692,10 +5683,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5703,10 +5694,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5714,10 +5705,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C145" s="44" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5725,10 +5716,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5736,10 +5727,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5747,10 +5738,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5758,10 +5749,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C149" s="44" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5769,7 +5760,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="32" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
@@ -5780,7 +5771,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
@@ -5791,10 +5782,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="32" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C152" s="44" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5802,7 +5793,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C153" s="44" t="s">
         <v>12</v>
@@ -5813,7 +5804,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C154" t="s">
         <v>9</v>
@@ -5824,7 +5815,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C155" s="36" t="s">
         <v>21</v>
@@ -5835,7 +5826,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C156" t="s">
         <v>20</v>
@@ -5846,10 +5837,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="C157" t="s">
         <v>593</v>
-      </c>
-      <c r="C157" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5857,7 +5848,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>16</v>
@@ -5868,10 +5859,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -5879,10 +5870,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="32" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5890,7 +5881,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="32" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
@@ -5901,7 +5892,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="32" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
@@ -5912,7 +5903,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="32" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C163" t="s">
         <v>8</v>
@@ -5924,7 +5915,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="32" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -5936,7 +5927,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="32" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C165" s="44" t="s">
         <v>19</v>
@@ -5948,10 +5939,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="32" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D166" s="28"/>
     </row>
@@ -5960,10 +5951,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="39" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5979,8 +5970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:CA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6008,28 +5999,28 @@
         <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>137</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>138</v>
       </c>
       <c r="K2" s="74" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="L2" s="74"/>
       <c r="M2" s="74"/>
@@ -6091,13 +6082,13 @@
         <v>141</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="N4" s="67" t="s">
         <v>77</v>
@@ -7112,7 +7103,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>149</v>
@@ -7371,7 +7362,7 @@
         <v>Quality models usageQ5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>158</v>
@@ -7384,7 +7375,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>149</v>
@@ -7651,7 +7642,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>149</v>
@@ -7923,7 +7914,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>149</v>
@@ -8195,7 +8186,7 @@
         <v>28</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>141</v>
@@ -8467,7 +8458,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>149</v>
@@ -8739,7 +8730,7 @@
         <v>30</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>629</v>
+        <v>211</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>153</v>
@@ -9011,7 +9002,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>629</v>
+        <v>211</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>149</v>
@@ -9283,7 +9274,7 @@
         <v>32</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>149</v>
@@ -9555,7 +9546,7 @@
         <v>33</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>149</v>
@@ -10096,7 +10087,7 @@
         <v>Q14.2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>211</v>
@@ -10371,7 +10362,7 @@
         <v>37</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>141</v>
@@ -10643,7 +10634,7 @@
         <v>38</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>172</v>
@@ -10655,7 +10646,7 @@
         <v>146</v>
       </c>
       <c r="M21" s="65" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="N21" s="63" t="str">
         <f>+IFERROR(IF(VLOOKUP($M21&amp;N$4,Table2[[Column1]:[Column1]],1,FALSE) = 0,"","X"),"")</f>
@@ -10915,7 +10906,7 @@
         <v>39</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>172</v>
@@ -11187,7 +11178,7 @@
         <v>40</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>172</v>
@@ -11459,7 +11450,7 @@
         <v>41</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>172</v>
@@ -11731,7 +11722,7 @@
         <v>42</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>172</v>
@@ -12003,7 +11994,7 @@
         <v>43</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>172</v>
@@ -12275,7 +12266,7 @@
         <v>44</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>172</v>
@@ -12810,7 +12801,7 @@
         <v>Q18.2</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>211</v>
@@ -13366,7 +13357,7 @@
         <v>27</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M31" s="65" t="s">
         <v>183</v>
@@ -13629,7 +13620,7 @@
         <v>48</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>149</v>
@@ -13638,7 +13629,7 @@
         <v>28</v>
       </c>
       <c r="L32" s="64" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M32" s="65" t="s">
         <v>139</v>
@@ -13901,7 +13892,7 @@
         <v>49</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>172</v>
@@ -14580,7 +14571,7 @@
         <v>56</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>149</v>
@@ -14677,7 +14668,7 @@
         <v>57</v>
       </c>
       <c r="H41" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>149</v>
@@ -14774,7 +14765,7 @@
         <v>57</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>149</v>
@@ -15162,7 +15153,7 @@
         <v>61</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>172</v>
@@ -15259,7 +15250,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>172</v>
@@ -15453,7 +15444,7 @@
         <v>64</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>149</v>
@@ -15550,7 +15541,7 @@
         <v>65</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>172</v>
@@ -16813,258 +16804,258 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -17076,15 +17067,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
@@ -17119,22 +17110,22 @@
         <v>218</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17253,10 +17244,10 @@
         <v>219</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>10</v>
@@ -17264,26 +17255,26 @@
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>611</v>
+        <v>160</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q5 ¿Qué enfoque sistemático (modelo de calidad) de software utiliza o posee la empresa?</v>
+        <v>Q7 ¿Cuál es el propósito y tipo de software construido en la empresa?:</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>619</v>
+        <v>220</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>240</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>10</v>
@@ -17294,53 +17285,83 @@
         <v>154</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q7 ¿Cuál es el propósito y tipo de software construido en la empresa?:</v>
+        <v>Q30 ¿Qué tan relacionados están los productos que desarrollan en su organización?</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>10</v>
+        <v>227</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q8 Promedio de personas que componen un proyecto de software:2</v>
+        <v>Q31.1 Realizamos análisis de mercado para determinar de manera efectiva que dominios se modelarán y que componentes reutilizables se desarrollarán.</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>610</v>
+        <v>244</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
+        <v>227</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17348,26 +17369,26 @@
         <v>150</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q9 La experiencia promedio del/los equipos de desarrollo de software es:Nota: si en su empresa la experiencia de los equipos de desarrollo se distribuye según la complejidad o el tamaño de los proyectos, puede seleccionar varias opciones.</v>
+        <v>Q8 Promedio de personas que componen un proyecto de software:2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>229</v>
+        <v>109</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>221</v>
+        <v>605</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17384,41 +17405,30 @@
       <c r="D12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F12"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q11 ¿Cuáles de los siguientes métodos, metodologías y prácticas se usan en la empresa para el proceso de desarrollo de software?</v>
+        <v>Q9 La experiencia promedio del/los equipos de desarrollo de software es:Nota: si en su empresa la experiencia de los equipos de desarrollo se distribuye según la complejidad o el tamaño de los proyectos, puede seleccionar varias opciones.</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>265</v>
+        <v>110</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>221</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>10</v>
@@ -17426,56 +17436,84 @@
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q12 ¿Cuáles de los siguientes paradigmas de programación usa en los proyectos en general?:</v>
+        <v>Q15 En que circunstancias la reutilización de software en su organización dependería de situaciones legales, como por ejemplo, la legislación o temas contractuales.2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>266</v>
+        <v>230</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>10</v>
+      <c r="H14" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q13 ¿Cuáles de los siguientes lenguajes de programación se usan en el back-end y front-end para los proyectos de software?</v>
+        <v>Q16.1 La reutilización es económicamente factible en mi organización.</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>267</v>
+        <v>113</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>226</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
+        <v>227</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17530,41 +17568,41 @@
         <v>150</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q15 En que circunstancias la reutilización de software en su organización dependería de situaciones legales, como por ejemplo, la legislación o temas contractuales.2</v>
+        <v>Q16.2 Una política de reconocimientos (tiempo, dinero, etc.) esta establecida para promover el reúso de software.</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="N18" s="56"/>
       <c r="P18" s="4"/>
@@ -17575,39 +17613,41 @@
         <v>150</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q16.1 La reutilización es económicamente factible en mi organización.</v>
+        <v>Q17.1 La alta dirección de la compañía apoya y tiene un compromiso en introducir y mantener la reutilización de software.</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>235</v>
       </c>
       <c r="F19" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="H19" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="M19" s="58" t="s">
-        <v>287</v>
+        <v>227</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17615,237 +17655,222 @@
         <v>150</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q16.2 Una política de reconocimientos (tiempo, dinero, etc.) esta establecida para promover el reúso de software.</v>
+        <v>Q17.2 Mi organización promueve el entrenamiento y motivación en la reutilización de software.</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q16.3 Los desarrolladores siguen un proceso de reutilización de software que está definido con el proceso de desarrollo de software de la organización.</v>
+        <v>Q24 ¿La empresa tiene una persona o un equipo independiente dedicada al desarrollo de artefactos reutilizables?</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>251</v>
+        <v>239</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>236</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="K21" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+        <v>227</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="M21" s="58" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>175</v>
+        <v>606</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q16.4 Las herramientas (lenguaje, frameworks, repositorios, etc) que la compañía usa han promovido la reutilización en el/los proyectos.</v>
+        <v>Q5 ¿Qué enfoque sistemático (modelo de calidad) de software utiliza o posee la empresa?</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>268</v>
+        <v>241</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>614</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q16.5 La empresa mide el nivel de reutilización de software.</v>
+        <v>Q16.3 Los desarrolladores siguen un proceso de reutilización de software que está definido con el proceso de desarrollo de software de la organización.</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>254</v>
+        <v>243</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J23" s="58" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K23" s="58" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L23" s="57"/>
       <c r="M23" s="57"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q17.1 La alta dirección de la compañía apoya y tiene un compromiso en introducir y mantener la reutilización de software.</v>
+        <v>Q16.5 La empresa mide el nivel de reutilización de software.</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>287</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="K24" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q17.2 Mi organización promueve el entrenamiento y motivación en la reutilización de software.</v>
+        <v>Q27 Tenemos un proceso valioso para certificar componentes de software reutilizables.</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>234</v>
+        <v>608</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="42" t="s">
-        <v>228</v>
+      <c r="H25" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17936,9 +17961,15 @@
       <c r="D29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -17964,25 +17995,25 @@
         <v>119</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I30" s="58" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J30" s="58" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K30" s="58" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
@@ -18002,16 +18033,16 @@
         <v>187</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>261</v>
+        <v>626</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18169,23 +18200,23 @@
         <v>146</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q23 ¿En su empresa, cuál es el origen de los artefactos del/los proyecto(s)?</v>
+        <v>Q25 ¿En que momento se desarrollan los artefactos reutilizables para los proyectos de software?</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>263</v>
+        <v>609</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>10</v>
@@ -18324,38 +18355,29 @@
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q24 ¿La empresa tiene una persona o un equipo independiente dedicada al desarrollo de artefactos reutilizables?</v>
+        <v>Q23 ¿En su empresa, cuál es el origen de los artefactos del/los proyecto(s)?</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="M45" s="58" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18373,52 +18395,40 @@
         <v>131</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F46" s="49" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="58" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M46" s="58" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q25 ¿En que momento se desarrollan los artefactos reutilizables para los proyectos de software?</v>
+        <v>Q11 ¿Cuáles de los siguientes métodos, metodologías y prácticas se usan en la empresa para el proceso de desarrollo de software?</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47" s="49" t="s">
-        <v>614</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18516,44 +18526,29 @@
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q27 Tenemos un proceso valioso para certificar componentes de software reutilizables.</v>
+        <v>Q12 ¿Cuáles de los siguientes paradigmas de programación usa en los proyectos en general?:</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F53" s="49" t="s">
-        <v>613</v>
+        <v>255</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>625</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18561,37 +18556,26 @@
         <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q28 El soporte del repositorio es efectivo y eficiente para la reutilización de software.</v>
+        <v>Q13 ¿Cuáles de los siguientes lenguajes de programación se usan en el back-end y front-end para los proyectos de software?</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G54" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="M54" s="58" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18619,87 +18603,77 @@
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q30 ¿Qué tan relacionados están los productos que desarrollan en su organización?</v>
+        <v>Q28 El soporte del repositorio es efectivo y eficiente para la reutilización de software.</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F56" s="47" t="s">
-        <v>243</v>
+        <v>258</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>287</v>
+        <v>227</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="M56" s="58" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</f>
-        <v>Q31.1 Realizamos análisis de mercado para determinar de manera efectiva que dominios se modelarán y que componentes reutilizables se desarrollarán.</v>
+        <v>Q16.4 Las herramientas (lenguaje, frameworks, repositorios, etc) que la compañía usa han promovido la reutilización en el/los proyectos.</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="49" t="s">
-        <v>245</v>
+        <v>259</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>287</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">

--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luisa Restrepo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A72F2F7-05EF-4FEA-BD94-29464C255F12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA78A519-4D66-4211-B1CD-CE84527426BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="8" r:id="rId1"/>
     <sheet name="Binarios" sheetId="10" r:id="rId2"/>
-    <sheet name="DimensionxFactorxPregunta" sheetId="2" r:id="rId3"/>
+    <sheet name="Dimensions" sheetId="2" r:id="rId3"/>
     <sheet name="Regiones" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="Hypotheses" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -3081,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25:G64"/>
     </sheetView>
   </sheetViews>
@@ -5970,8 +5970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:CA63"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17067,7 +17067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>

--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BD3EE-600B-4F37-A418-040C770D20A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{452BD3EE-600B-4F37-A418-040C770D20A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC5D42D6-37AF-481F-A00E-EB4FE0AEEBAE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="703" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="703" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Dimensions" sheetId="2" r:id="rId3"/>
     <sheet name="Regiones" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="Hypotheses" sheetId="3" r:id="rId5"/>
+    <sheet name="OpenedQuestions" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="638">
   <si>
     <t>respondent_id</t>
   </si>
@@ -1971,6 +1972,33 @@
   </si>
   <si>
     <t>Q54</t>
+  </si>
+  <si>
+    <t>Question ID</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Bootstrap, Ionic, Angular, React, Vue.js, Jquery</t>
+  </si>
+  <si>
+    <t>ASP .NET, Node.js, Express.js, Lavarel, Django, Spring, Symfony, YII, CodeIgniter, Flask, Play framework</t>
+  </si>
+  <si>
+    <t>Legislación, Temas Contractuales, Temas de la compañia</t>
+  </si>
+  <si>
+    <t>Productos similares, Apoyo de la dirección, Buenas prácticas, Entrenamiento, Compromiso</t>
+  </si>
+  <si>
+    <t>Artefactos con errores, Falta de documentación, Proyectos diversos, Temas contractuales, Procesos mal establecidos, Desconocimiento, Falta de capacitación</t>
+  </si>
+  <si>
+    <t>Repositorio de librerías, Gestor de paquetes, Repositorio de código</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2514,11 +2542,15 @@
     <xf numFmtId="0" fontId="5" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2722,14 +2754,20 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:G58" totalsRowShown="0">
-  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F58">
     <sortCondition ref="A1:A58"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="column" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="column" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="question" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="question" dataDxfId="24"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Observaciones"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Niveles"/>
     <tableColumn id="6" xr3:uid="{4A34EBCF-80A7-4BD0-9FEB-E60AA1487AC0}" name="Columna1"/>
@@ -2740,14 +2778,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:C167" totalsRowShown="0" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:C167" totalsRowShown="0" tableBorderDxfId="23">
   <autoFilter ref="A1:C167" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C167">
     <sortCondition ref="A1:A167"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="#" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MULTI" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="#" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MULTI" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="RESUESTA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2755,35 +2793,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2" displayName="Table2" ref="A2:J56" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2" displayName="Table2" ref="A2:J56" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A2:J56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J56">
     <sortCondition ref="E2:E56"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Factor #" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Dimension" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{58064347-6C0F-49BF-82E0-D7BB70900D52}" name="Column1" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Factor #" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Dimension" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{58064347-6C0F-49BF-82E0-D7BB70900D52}" name="Column1" dataDxfId="16">
       <calculatedColumnFormula>+CONCATENATE(Table2[[#This Row],[Name]],Table2[[#This Row],[Pregunta'#]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Orden" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Pregunta#" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Orden" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Pregunta#" dataDxfId="13">
       <calculatedColumnFormula>+LEFT(Table2[[#This Row],[Pregunta]],FIND(" ",Table2[[#This Row],[Pregunta]]) -1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Pregunta" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{88E61EA0-31C1-40F1-9E3A-FF520DEDA63B}" name="Columna1" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Pregunta" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{88E61EA0-31C1-40F1-9E3A-FF520DEDA63B}" name="Columna1" dataDxfId="11">
       <calculatedColumnFormula>+VLOOKUP(Table2[[#This Row],[Pregunta]],Tabla3[[Question]:['#H]],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{104E507B-AD2D-4293-A98E-E2048F73BA9F}" name="Factor Directo/Complementaria" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Type" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{104E507B-AD2D-4293-A98E-E2048F73BA9F}" name="Factor Directo/Complementaria" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Type" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla3" displayName="Tabla3" ref="A1:M64" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla3" displayName="Tabla3" ref="A1:M64" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:M64" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="4">
       <customFilters>
@@ -2797,19 +2835,33 @@
   <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Dimension"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Factor"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Question" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Question" dataDxfId="7">
       <calculatedColumnFormula>+VLOOKUP(Tabla3[[#This Row],['#Q]],Table2[[Orden]:[Type]],3,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="#Q"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="#H"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Hypotheses2"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Expec."/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Result" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{1551454B-2D70-43CA-95AB-830115FC8FBA}" name="Startups" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{858E219C-7084-4E24-8417-89C4B40A8BCB}" name="Micro" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{84B3F26E-264C-494A-B7A3-738326523E27}" name="Small" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{824752DA-A7F4-4548-9E27-6720083111F7}" name="Medium" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{EFE8E0DB-797B-4D9D-9645-F116D0F02661}" name="Large" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Result" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{1551454B-2D70-43CA-95AB-830115FC8FBA}" name="Startups" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{858E219C-7084-4E24-8417-89C4B40A8BCB}" name="Micro" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{84B3F26E-264C-494A-B7A3-738326523E27}" name="Small" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{824752DA-A7F4-4548-9E27-6720083111F7}" name="Medium" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{EFE8E0DB-797B-4D9D-9645-F116D0F02661}" name="Large" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F8F5AA4-9016-493D-9812-94477E4E51B3}" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9" xr:uid="{D135F127-0B74-43D8-B995-75C65C50232E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F9B95BF4-B40B-4F50-B485-EB192145AFFF}" name="Question ID"/>
+    <tableColumn id="3" xr3:uid="{D04C6CF1-D9DB-4647-8A3E-921F536CA623}" name="Question"/>
+    <tableColumn id="4" xr3:uid="{6F1BA106-045C-4081-B97A-B11DC398A6FA}" name="Categories" dataDxfId="0">
+      <calculatedColumnFormula>+CONCATENATE(B14:G14)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3110,8 +3162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3198,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>73</v>
       </c>
@@ -3163,7 +3215,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>74</v>
       </c>
@@ -3180,7 +3232,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>75</v>
       </c>
@@ -3200,7 +3252,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>392</v>
       </c>
@@ -3220,7 +3272,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>105</v>
       </c>
@@ -3240,7 +3292,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>106</v>
       </c>
@@ -3260,7 +3312,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>107</v>
       </c>
@@ -3280,7 +3332,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>108</v>
       </c>
@@ -3300,7 +3352,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>161</v>
       </c>
@@ -3378,7 +3430,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>78</v>
       </c>
@@ -3398,7 +3450,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>79</v>
       </c>
@@ -3418,7 +3470,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>80</v>
       </c>
@@ -3438,7 +3490,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>81</v>
       </c>
@@ -3458,7 +3510,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>82</v>
       </c>
@@ -3478,7 +3530,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>83</v>
       </c>
@@ -3498,7 +3550,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>84</v>
       </c>
@@ -3518,7 +3570,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>85</v>
       </c>
@@ -3556,7 +3608,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>109</v>
       </c>
@@ -3576,7 +3628,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>99</v>
       </c>
@@ -3593,7 +3645,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>110</v>
       </c>
@@ -3613,7 +3665,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>111</v>
       </c>
@@ -3633,7 +3685,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>86</v>
       </c>
@@ -3656,7 +3708,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>87</v>
       </c>
@@ -3679,7 +3731,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>88</v>
       </c>
@@ -3702,7 +3754,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>89</v>
       </c>
@@ -3725,7 +3777,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>90</v>
       </c>
@@ -3748,7 +3800,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
         <v>91</v>
       </c>
@@ -3771,7 +3823,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>92</v>
       </c>
@@ -3791,7 +3843,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
         <v>112</v>
       </c>
@@ -3811,7 +3863,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
         <v>113</v>
       </c>
@@ -3831,7 +3883,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>114</v>
       </c>
@@ -3851,7 +3903,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>93</v>
       </c>
@@ -3886,7 +3938,7 @@
       </c>
       <c r="G38" s="50"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51" t="s">
         <v>94</v>
       </c>
@@ -3906,7 +3958,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>95</v>
       </c>
@@ -3943,7 +3995,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
         <v>76</v>
       </c>
@@ -3963,7 +4015,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>115</v>
       </c>
@@ -3983,7 +4035,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
         <v>96</v>
       </c>
@@ -4003,7 +4055,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="51" t="s">
         <v>97</v>
       </c>
@@ -4023,7 +4075,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>98</v>
       </c>
@@ -4043,7 +4095,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
         <v>116</v>
       </c>
@@ -4060,7 +4112,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>117</v>
       </c>
@@ -4077,7 +4129,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>118</v>
       </c>
@@ -4111,7 +4163,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="43" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
         <v>100</v>
       </c>
@@ -4131,7 +4183,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
         <v>101</v>
       </c>
@@ -4151,7 +4203,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>102</v>
       </c>
@@ -4165,7 +4217,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
         <v>103</v>
       </c>
@@ -4205,7 +4257,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
         <v>104</v>
       </c>
@@ -4225,7 +4277,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>0</v>
       </c>
@@ -4242,7 +4294,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>72</v>
       </c>
@@ -17072,7 +17124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -18891,4 +18943,126 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29A22BA-D008-44ED-AC05-D55235709D65}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="148.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Proyectos GitHub\SoftwareReuse_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CC043D-30E7-418A-A9F6-97AB2FE2E24A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9599757F-05F1-4A84-8C2A-A8FD7976E0A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="703" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="11760" windowHeight="11835" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="661">
   <si>
     <t>respondent_id</t>
   </si>
@@ -2009,6 +2009,15 @@
   </si>
   <si>
     <t>Legislation, contractual issues, Company issues</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>H20</t>
   </si>
 </sst>
 </file>
@@ -2290,12 +2299,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2309,6 +2312,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2316,15 +2325,9 @@
   <dxfs count="23">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2387,6 +2390,18 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2490,13 +2505,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFA6A6A6"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2508,13 +2521,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2577,17 +2587,16 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FFA6A6A6"/>
-        </left>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
@@ -2608,21 +2617,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:E58" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:E58" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:E58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E58">
     <sortCondition ref="A1:A58"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Question Identifier" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Question type" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Question Spanish" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{82937DDA-D9FC-4287-921B-A1AF2D7B4719}" name="Question English" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Question Identifier" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Question type" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Question Spanish" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{82937DDA-D9FC-4287-921B-A1AF2D7B4719}" name="Question English" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Answers options" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2630,27 +2635,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:E143" totalsRowShown="0" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:E143" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A1:E143" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D143">
     <sortCondition ref="A1:A143"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="#" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{C0E89F5C-EC9D-4EC0-A0E6-94D32E390030}" name="Question Identifier" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Answer Identifier" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ANSWER SPANISH" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{5A70E9DB-C552-4874-BE47-34EDAAEDDD92}" name="ANSWER ENGLISH" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="#" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{C0E89F5C-EC9D-4EC0-A0E6-94D32E390030}" name="Question Identifier" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Answer Identifier" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ANSWER SPANISH" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{5A70E9DB-C552-4874-BE47-34EDAAEDDD92}" name="ANSWER ENGLISH" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2" displayName="Table2" ref="A2:G56" totalsRowShown="0" headerRowDxfId="21" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2" displayName="Table2" ref="A2:G56" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:G56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G56">
-    <sortCondition ref="D2:D56"/>
+    <sortCondition ref="E2:E56"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Dimension" dataDxfId="7"/>
@@ -2663,7 +2668,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Question" dataDxfId="2">
       <calculatedColumnFormula>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{88E61EA0-31C1-40F1-9E3A-FF520DEDA63B}" name="Associated Hypotheses" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{88E61EA0-31C1-40F1-9E3A-FF520DEDA63B}" name="Associated Hypotheses" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2674,7 +2679,7 @@
   <autoFilter ref="A1:C9" xr:uid="{D135F127-0B74-43D8-B995-75C65C50232E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F9B95BF4-B40B-4F50-B485-EB192145AFFF}" name="Question Identifier"/>
-    <tableColumn id="4" xr3:uid="{6F1BA106-045C-4081-B97A-B11DC398A6FA}" name="Categories created Spanish" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{6F1BA106-045C-4081-B97A-B11DC398A6FA}" name="Categories created Spanish" dataDxfId="0">
       <calculatedColumnFormula>+CONCATENATE(B14:F14)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{7996DAD0-94CC-4AEB-B84A-82A7711A0D7D}" name="Categories created English"/>
@@ -2970,16 +2975,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -3002,7 +3007,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3017,7 +3022,7 @@
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -3032,7 +3037,7 @@
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -3047,7 +3052,7 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>278</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -3062,7 +3067,7 @@
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -3079,7 +3084,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -3096,7 +3101,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -3113,7 +3118,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3130,7 +3135,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3144,7 +3149,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -3159,7 +3164,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -3174,7 +3179,7 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3191,7 +3196,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -3208,7 +3213,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -3225,7 +3230,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -3242,7 +3247,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -3259,7 +3264,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -3276,7 +3281,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -3293,7 +3298,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -3310,7 +3315,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -3325,7 +3330,7 @@
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -3342,7 +3347,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -3359,7 +3364,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -3376,7 +3381,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -3393,7 +3398,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -3410,7 +3415,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -3427,7 +3432,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -3444,7 +3449,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -3461,7 +3466,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -3478,7 +3483,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -3495,7 +3500,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -3512,7 +3517,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -3529,7 +3534,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>490</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -3546,7 +3551,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="28" t="s">
         <v>491</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -3563,7 +3568,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -3580,7 +3585,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -3597,7 +3602,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -3612,7 +3617,7 @@
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -3629,7 +3634,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -3646,7 +3651,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -3661,7 +3666,7 @@
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -3678,7 +3683,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -3695,7 +3700,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -3712,7 +3717,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -3729,7 +3734,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -3746,7 +3751,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -3763,7 +3768,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -3780,7 +3785,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -3797,7 +3802,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -3812,7 +3817,7 @@
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -3829,7 +3834,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -3846,7 +3851,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B53" s="14" t="s">
@@ -3863,7 +3868,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -3880,7 +3885,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="14" t="s">
@@ -3895,7 +3900,7 @@
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="14" t="s">
@@ -3912,7 +3917,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="14" t="s">
@@ -3927,7 +3932,7 @@
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="14" t="s">
@@ -3955,27 +3960,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>509</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -3990,10 +3995,10 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>290</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -4008,10 +4013,10 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -4027,10 +4032,10 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -4046,10 +4051,10 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -4065,10 +4070,10 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>294</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -4084,10 +4089,10 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>295</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -4103,10 +4108,10 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>296</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -4122,10 +4127,10 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>297</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4141,10 +4146,10 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>298</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -4160,10 +4165,10 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>299</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -4179,10 +4184,10 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>300</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -4198,10 +4203,10 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>301</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -4217,10 +4222,10 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>302</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -4236,10 +4241,10 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="30" t="s">
         <v>303</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -4255,10 +4260,10 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>304</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -4274,10 +4279,10 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="30" t="s">
         <v>305</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -4293,10 +4298,10 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>306</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -4312,10 +4317,10 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="30" t="s">
         <v>307</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -4331,10 +4336,10 @@
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="30" t="s">
         <v>308</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -4350,10 +4355,10 @@
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="30" t="s">
         <v>309</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -4369,10 +4374,10 @@
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="30" t="s">
         <v>310</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -4388,10 +4393,10 @@
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="30" t="s">
         <v>311</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -4407,10 +4412,10 @@
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="30" t="s">
         <v>312</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -4426,10 +4431,10 @@
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="30" t="s">
         <v>313</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -4445,10 +4450,10 @@
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="30" t="s">
         <v>314</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -4464,10 +4469,10 @@
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>315</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -4483,10 +4488,10 @@
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="30" t="s">
         <v>316</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -4502,10 +4507,10 @@
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="30" t="s">
         <v>317</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -4521,10 +4526,10 @@
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="30" t="s">
         <v>318</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -4540,10 +4545,10 @@
       <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>319</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -4559,10 +4564,10 @@
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="30" t="s">
         <v>320</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -4578,10 +4583,10 @@
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>321</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -4597,10 +4602,10 @@
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="30" t="s">
         <v>322</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -4616,10 +4621,10 @@
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>323</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -4635,10 +4640,10 @@
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>324</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -4654,10 +4659,10 @@
       <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>325</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -4673,10 +4678,10 @@
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="30" t="s">
         <v>326</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -4692,10 +4697,10 @@
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="30" t="s">
         <v>327</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -4711,10 +4716,10 @@
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="30" t="s">
         <v>328</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -4730,10 +4735,10 @@
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="30" t="s">
         <v>329</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -4749,10 +4754,10 @@
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="30" t="s">
         <v>330</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -4768,10 +4773,10 @@
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="30" t="s">
         <v>331</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -4787,10 +4792,10 @@
       <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="30" t="s">
         <v>332</v>
       </c>
       <c r="D44" s="10" t="s">
@@ -4806,10 +4811,10 @@
       <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="30" t="s">
         <v>333</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -4825,10 +4830,10 @@
       <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="30" t="s">
         <v>286</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -4844,10 +4849,10 @@
       <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="30" t="s">
         <v>287</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -4863,10 +4868,10 @@
       <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="30" t="s">
         <v>288</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -4882,10 +4887,10 @@
       <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="30" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -4901,10 +4906,10 @@
       <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="30" t="s">
         <v>334</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -4920,10 +4925,10 @@
       <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="30" t="s">
         <v>335</v>
       </c>
       <c r="D51" s="10" t="s">
@@ -4939,10 +4944,10 @@
       <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="30" t="s">
         <v>336</v>
       </c>
       <c r="D52" s="10" t="s">
@@ -4958,10 +4963,10 @@
       <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="30" t="s">
         <v>337</v>
       </c>
       <c r="D53" s="10" t="s">
@@ -4977,10 +4982,10 @@
       <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="30" t="s">
         <v>338</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -4996,10 +5001,10 @@
       <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="30" t="s">
         <v>339</v>
       </c>
       <c r="D55" s="10" t="s">
@@ -5015,10 +5020,10 @@
       <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="30" t="s">
         <v>340</v>
       </c>
       <c r="D56" s="10" t="s">
@@ -5034,10 +5039,10 @@
       <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="30" t="s">
         <v>341</v>
       </c>
       <c r="D57" s="10" t="s">
@@ -5053,10 +5058,10 @@
       <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="30" t="s">
         <v>342</v>
       </c>
       <c r="D58" s="10" t="s">
@@ -5072,10 +5077,10 @@
       <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="30" t="s">
         <v>343</v>
       </c>
       <c r="D59" s="10" t="s">
@@ -5091,10 +5096,10 @@
       <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="30" t="s">
         <v>344</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -5110,10 +5115,10 @@
       <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="30" t="s">
         <v>345</v>
       </c>
       <c r="D61" s="10" t="s">
@@ -5129,10 +5134,10 @@
       <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="30" t="s">
         <v>346</v>
       </c>
       <c r="D62" s="10" t="s">
@@ -5148,10 +5153,10 @@
       <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="30" t="s">
         <v>347</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -5167,10 +5172,10 @@
       <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="30" t="s">
         <v>348</v>
       </c>
       <c r="D64" s="10" t="s">
@@ -5186,10 +5191,10 @@
       <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="30" t="s">
         <v>349</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -5205,10 +5210,10 @@
       <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="30" t="s">
         <v>350</v>
       </c>
       <c r="D66" s="10" t="s">
@@ -5224,10 +5229,10 @@
       <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="30" t="s">
         <v>351</v>
       </c>
       <c r="D67" s="10" t="s">
@@ -5243,10 +5248,10 @@
       <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="30" t="s">
         <v>352</v>
       </c>
       <c r="D68" s="10" t="s">
@@ -5262,10 +5267,10 @@
       <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="30" t="s">
         <v>353</v>
       </c>
       <c r="D69" s="10" t="s">
@@ -5281,10 +5286,10 @@
       <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="30" t="s">
         <v>354</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -5300,10 +5305,10 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="30" t="s">
         <v>360</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -5319,10 +5324,10 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="30" t="s">
         <v>361</v>
       </c>
       <c r="D72" s="10" t="s">
@@ -5338,10 +5343,10 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="30" t="s">
         <v>362</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -5357,10 +5362,10 @@
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="30" t="s">
         <v>363</v>
       </c>
       <c r="D74" s="10" t="s">
@@ -5376,10 +5381,10 @@
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="30" t="s">
         <v>364</v>
       </c>
       <c r="D75" s="10" t="s">
@@ -5395,10 +5400,10 @@
       <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="30" t="s">
         <v>365</v>
       </c>
       <c r="D76" s="10" t="s">
@@ -5414,10 +5419,10 @@
       <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="30" t="s">
         <v>366</v>
       </c>
       <c r="D77" s="10" t="s">
@@ -5433,10 +5438,10 @@
       <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="30" t="s">
         <v>367</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -5452,10 +5457,10 @@
       <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="30" t="s">
         <v>371</v>
       </c>
       <c r="D79" s="10" t="s">
@@ -5471,10 +5476,10 @@
       <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="30" t="s">
         <v>372</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -5490,10 +5495,10 @@
       <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="30" t="s">
         <v>373</v>
       </c>
       <c r="D81" s="10" t="s">
@@ -5509,10 +5514,10 @@
       <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="30" t="s">
         <v>374</v>
       </c>
       <c r="D82" s="10" t="s">
@@ -5528,10 +5533,10 @@
       <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="30" t="s">
         <v>375</v>
       </c>
       <c r="D83" s="10" t="s">
@@ -5547,10 +5552,10 @@
       <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="30" t="s">
         <v>376</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -5566,10 +5571,10 @@
       <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C85" s="30" t="s">
         <v>377</v>
       </c>
       <c r="D85" s="10" t="s">
@@ -5585,10 +5590,10 @@
       <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="30" t="s">
         <v>378</v>
       </c>
       <c r="D86" s="10" t="s">
@@ -5604,10 +5609,10 @@
       <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="30" t="s">
         <v>379</v>
       </c>
       <c r="D87" s="10" t="s">
@@ -5623,10 +5628,10 @@
       <c r="A88" s="12">
         <v>87</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="30" t="s">
         <v>380</v>
       </c>
       <c r="D88" s="10" t="s">
@@ -5642,10 +5647,10 @@
       <c r="A89" s="12">
         <v>88</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C89" s="30" t="s">
         <v>381</v>
       </c>
       <c r="D89" s="10" t="s">
@@ -5661,10 +5666,10 @@
       <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="30" t="s">
         <v>382</v>
       </c>
       <c r="D90" s="10" t="s">
@@ -5680,10 +5685,10 @@
       <c r="A91" s="12">
         <v>90</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" s="30" t="s">
         <v>383</v>
       </c>
       <c r="D91" s="10" t="s">
@@ -5699,10 +5704,10 @@
       <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C92" s="30" t="s">
         <v>384</v>
       </c>
       <c r="D92" s="10" t="s">
@@ -5718,10 +5723,10 @@
       <c r="A93" s="12">
         <v>92</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C93" s="30" t="s">
         <v>385</v>
       </c>
       <c r="D93" s="10" t="s">
@@ -5737,10 +5742,10 @@
       <c r="A94" s="12">
         <v>93</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C94" s="30" t="s">
         <v>386</v>
       </c>
       <c r="D94" s="10" t="s">
@@ -5756,10 +5761,10 @@
       <c r="A95" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="C95" s="30" t="s">
         <v>387</v>
       </c>
       <c r="D95" s="10" t="s">
@@ -5775,10 +5780,10 @@
       <c r="A96" s="12">
         <v>95</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="C96" s="30" t="s">
         <v>388</v>
       </c>
       <c r="D96" s="10" t="s">
@@ -5794,10 +5799,10 @@
       <c r="A97" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="32" t="s">
+      <c r="C97" s="30" t="s">
         <v>389</v>
       </c>
       <c r="D97" s="10" t="s">
@@ -5813,10 +5818,10 @@
       <c r="A98" s="12">
         <v>97</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="32" t="s">
+      <c r="C98" s="30" t="s">
         <v>390</v>
       </c>
       <c r="D98" s="10" t="s">
@@ -5832,10 +5837,10 @@
       <c r="A99" s="12">
         <v>98</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="32" t="s">
+      <c r="C99" s="30" t="s">
         <v>391</v>
       </c>
       <c r="D99" s="10" t="s">
@@ -5851,10 +5856,10 @@
       <c r="A100" s="12">
         <v>99</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="32" t="s">
+      <c r="C100" s="30" t="s">
         <v>392</v>
       </c>
       <c r="D100" s="10" t="s">
@@ -5870,10 +5875,10 @@
       <c r="A101" s="12">
         <v>100</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="30" t="s">
         <v>393</v>
       </c>
       <c r="D101" s="10" t="s">
@@ -5889,10 +5894,10 @@
       <c r="A102" s="12">
         <v>101</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C102" s="30" t="s">
         <v>394</v>
       </c>
       <c r="D102" s="10" t="s">
@@ -5908,10 +5913,10 @@
       <c r="A103" s="12">
         <v>102</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C103" s="30" t="s">
         <v>395</v>
       </c>
       <c r="D103" s="10" t="s">
@@ -5927,10 +5932,10 @@
       <c r="A104" s="12">
         <v>103</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C104" s="30" t="s">
         <v>396</v>
       </c>
       <c r="D104" s="10" t="s">
@@ -5946,10 +5951,10 @@
       <c r="A105" s="12">
         <v>104</v>
       </c>
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" s="30" t="s">
         <v>397</v>
       </c>
       <c r="D105" s="10" t="s">
@@ -5965,10 +5970,10 @@
       <c r="A106" s="12">
         <v>105</v>
       </c>
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="30" t="s">
         <v>398</v>
       </c>
       <c r="D106" s="10" t="s">
@@ -5984,10 +5989,10 @@
       <c r="A107" s="12">
         <v>106</v>
       </c>
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C107" s="30" t="s">
         <v>399</v>
       </c>
       <c r="D107" s="10" t="s">
@@ -6003,10 +6008,10 @@
       <c r="A108" s="12">
         <v>107</v>
       </c>
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C108" s="32" t="s">
+      <c r="C108" s="30" t="s">
         <v>400</v>
       </c>
       <c r="D108" s="10" t="s">
@@ -6022,10 +6027,10 @@
       <c r="A109" s="12">
         <v>108</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C109" s="32" t="s">
+      <c r="C109" s="30" t="s">
         <v>401</v>
       </c>
       <c r="D109" s="10" t="s">
@@ -6041,10 +6046,10 @@
       <c r="A110" s="12">
         <v>109</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C110" s="32" t="s">
+      <c r="C110" s="30" t="s">
         <v>402</v>
       </c>
       <c r="D110" s="10" t="s">
@@ -6060,10 +6065,10 @@
       <c r="A111" s="12">
         <v>110</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="C111" s="30" t="s">
         <v>403</v>
       </c>
       <c r="D111" s="10" t="s">
@@ -6079,10 +6084,10 @@
       <c r="A112" s="12">
         <v>111</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="C112" s="30" t="s">
         <v>404</v>
       </c>
       <c r="D112" s="10" t="s">
@@ -6098,10 +6103,10 @@
       <c r="A113" s="12">
         <v>112</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="30" t="s">
         <v>405</v>
       </c>
       <c r="D113" s="10" t="s">
@@ -6117,10 +6122,10 @@
       <c r="A114" s="12">
         <v>113</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="C114" s="30" t="s">
         <v>406</v>
       </c>
       <c r="D114" s="10" t="s">
@@ -6136,10 +6141,10 @@
       <c r="A115" s="12">
         <v>114</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="32" t="s">
+      <c r="C115" s="30" t="s">
         <v>407</v>
       </c>
       <c r="D115" s="10" t="s">
@@ -6155,10 +6160,10 @@
       <c r="A116" s="12">
         <v>115</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="C116" s="30" t="s">
         <v>408</v>
       </c>
       <c r="D116" s="10" t="s">
@@ -6174,10 +6179,10 @@
       <c r="A117" s="12">
         <v>116</v>
       </c>
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="32" t="s">
+      <c r="C117" s="30" t="s">
         <v>409</v>
       </c>
       <c r="D117" s="10" t="s">
@@ -6193,10 +6198,10 @@
       <c r="A118" s="12">
         <v>117</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="C118" s="30" t="s">
         <v>411</v>
       </c>
       <c r="D118" s="10" t="s">
@@ -6212,10 +6217,10 @@
       <c r="A119" s="12">
         <v>118</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="32" t="s">
+      <c r="C119" s="30" t="s">
         <v>412</v>
       </c>
       <c r="D119" s="10" t="s">
@@ -6231,10 +6236,10 @@
       <c r="A120" s="12">
         <v>119</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C120" s="30" t="s">
         <v>413</v>
       </c>
       <c r="D120" s="10" t="s">
@@ -6250,10 +6255,10 @@
       <c r="A121" s="12">
         <v>120</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C121" s="32" t="s">
+      <c r="C121" s="30" t="s">
         <v>414</v>
       </c>
       <c r="D121" s="10" t="s">
@@ -6269,10 +6274,10 @@
       <c r="A122" s="12">
         <v>121</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="C122" s="30" t="s">
         <v>415</v>
       </c>
       <c r="D122" s="10" t="s">
@@ -6288,10 +6293,10 @@
       <c r="A123" s="12">
         <v>122</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="C123" s="30" t="s">
         <v>416</v>
       </c>
       <c r="D123" s="10" t="s">
@@ -6307,10 +6312,10 @@
       <c r="A124" s="12">
         <v>123</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="C124" s="30" t="s">
         <v>417</v>
       </c>
       <c r="D124" s="10" t="s">
@@ -6326,10 +6331,10 @@
       <c r="A125" s="12">
         <v>124</v>
       </c>
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C125" s="30" t="s">
         <v>418</v>
       </c>
       <c r="D125" s="10" t="s">
@@ -6345,10 +6350,10 @@
       <c r="A126" s="12">
         <v>125</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="C126" s="30" t="s">
         <v>419</v>
       </c>
       <c r="D126" s="10" t="s">
@@ -6364,10 +6369,10 @@
       <c r="A127" s="12">
         <v>126</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="C127" s="30" t="s">
         <v>420</v>
       </c>
       <c r="D127" s="10" t="s">
@@ -6383,10 +6388,10 @@
       <c r="A128" s="12">
         <v>127</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C128" s="32" t="s">
+      <c r="C128" s="30" t="s">
         <v>421</v>
       </c>
       <c r="D128" s="10" t="s">
@@ -6402,10 +6407,10 @@
       <c r="A129" s="12">
         <v>128</v>
       </c>
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="C129" s="30" t="s">
         <v>422</v>
       </c>
       <c r="D129" s="10" t="s">
@@ -6421,10 +6426,10 @@
       <c r="A130" s="12">
         <v>129</v>
       </c>
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C130" s="32" t="s">
+      <c r="C130" s="30" t="s">
         <v>423</v>
       </c>
       <c r="D130" s="10" t="s">
@@ -6440,10 +6445,10 @@
       <c r="A131" s="12">
         <v>130</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C131" s="32" t="s">
+      <c r="C131" s="30" t="s">
         <v>424</v>
       </c>
       <c r="D131" s="10" t="s">
@@ -6459,10 +6464,10 @@
       <c r="A132" s="12">
         <v>131</v>
       </c>
-      <c r="B132" s="31" t="s">
+      <c r="B132" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C132" s="32" t="s">
+      <c r="C132" s="30" t="s">
         <v>425</v>
       </c>
       <c r="D132" s="10" t="s">
@@ -6478,10 +6483,10 @@
       <c r="A133" s="12">
         <v>132</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C133" s="32" t="s">
+      <c r="C133" s="30" t="s">
         <v>426</v>
       </c>
       <c r="D133" s="10" t="s">
@@ -6497,10 +6502,10 @@
       <c r="A134" s="12">
         <v>133</v>
       </c>
-      <c r="B134" s="31" t="s">
+      <c r="B134" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C134" s="32" t="s">
+      <c r="C134" s="30" t="s">
         <v>427</v>
       </c>
       <c r="D134" s="10" t="s">
@@ -6516,10 +6521,10 @@
       <c r="A135" s="12">
         <v>134</v>
       </c>
-      <c r="B135" s="31" t="s">
+      <c r="B135" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C135" s="32" t="s">
+      <c r="C135" s="30" t="s">
         <v>428</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6535,10 +6540,10 @@
       <c r="A136" s="12">
         <v>135</v>
       </c>
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C136" s="32" t="s">
+      <c r="C136" s="30" t="s">
         <v>429</v>
       </c>
       <c r="D136" s="10" t="s">
@@ -6554,10 +6559,10 @@
       <c r="A137" s="12">
         <v>141</v>
       </c>
-      <c r="B137" s="31" t="s">
+      <c r="B137" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="C137" s="30" t="s">
         <v>430</v>
       </c>
       <c r="D137" s="10" t="s">
@@ -6573,10 +6578,10 @@
       <c r="A138" s="12">
         <v>142</v>
       </c>
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C138" s="32" t="s">
+      <c r="C138" s="30" t="s">
         <v>431</v>
       </c>
       <c r="D138" s="10" t="s">
@@ -6592,10 +6597,10 @@
       <c r="A139" s="12">
         <v>143</v>
       </c>
-      <c r="B139" s="31" t="s">
+      <c r="B139" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C139" s="32" t="s">
+      <c r="C139" s="30" t="s">
         <v>432</v>
       </c>
       <c r="D139" s="10" t="s">
@@ -6611,10 +6616,10 @@
       <c r="A140" s="12">
         <v>144</v>
       </c>
-      <c r="B140" s="31" t="s">
+      <c r="B140" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C140" s="32" t="s">
+      <c r="C140" s="30" t="s">
         <v>433</v>
       </c>
       <c r="D140" s="10" t="s">
@@ -6630,10 +6635,10 @@
       <c r="A141" s="12">
         <v>145</v>
       </c>
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C141" s="32" t="s">
+      <c r="C141" s="30" t="s">
         <v>434</v>
       </c>
       <c r="D141" s="10" t="s">
@@ -6649,10 +6654,10 @@
       <c r="A142" s="12">
         <v>146</v>
       </c>
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C142" s="32" t="s">
+      <c r="C142" s="30" t="s">
         <v>435</v>
       </c>
       <c r="D142" s="10" t="s">
@@ -6668,10 +6673,10 @@
       <c r="A143" s="12">
         <v>147</v>
       </c>
-      <c r="B143" s="31" t="s">
+      <c r="B143" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C143" s="32" t="s">
+      <c r="C143" s="30" t="s">
         <v>436</v>
       </c>
       <c r="D143" s="10" t="s">
@@ -6697,8 +6702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:BY59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,7 +6713,7 @@
     <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="21.42578125" style="1" customWidth="1"/>
@@ -6739,11 +6744,11 @@
       <c r="G2" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -6765,9 +6770,9 @@
         <v>1. Company name</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="L3"/>
       <c r="M3"/>
     </row>
@@ -7239,24 +7244,24 @@
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B6" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Specific function in the software reuse processQ2</v>
+        <v>Software organization and team sizeQ10</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F6" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>4. What is your role in the company?</v>
+        <v>12. What is the size of the / the project (s) developed (s) in the enterprise Note: the word resource refers to staff time, supplies, budget, knowledge.</v>
       </c>
       <c r="G6" s="14"/>
       <c r="I6" s="17">
@@ -7503,26 +7508,28 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B7" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software organization and team sizeQ3</v>
+        <v>Software development approachQ11</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F7" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>5. Company size:</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>13. Which of the following methods, methodologies and practices used in the company's software development process?</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="I7" s="17">
         <v>3</v>
       </c>
@@ -7767,27 +7774,27 @@
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B8" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Application domainQ4</v>
+        <v>Software development approachQ12</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F8" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>6. To market the company offers its products and / or services:</v>
+        <v>14. Which of the following programming paradigms used in projects in general ?:</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="I8" s="17">
         <v>4</v>
@@ -8033,27 +8040,27 @@
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B9" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Quality models usageQ5</v>
+        <v>Programming languageQ13</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>440</v>
+        <v>88</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F9" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>7. What systematic approach (quality model) software uses or owns the company?</v>
+        <v>15. Which of the following programming languages ​​are used in the back-end and front-end for software projects?</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I9" s="17">
         <v>5</v>
@@ -8299,26 +8306,26 @@
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>68</v>
+        <v>647</v>
       </c>
       <c r="B10" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Q6</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>Programming languageQ14.1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="D10" s="14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>8. What services associated with software development company offering?</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>140</v>
-      </c>
+        <v>16. Frameworks Back-end</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="I10" s="17">
         <v>6</v>
       </c>
@@ -8563,28 +8570,26 @@
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B11" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of software developedQ7</v>
+        <v>Programming languageQ14.2</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F11" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>9. What is the purpose and type of software built in the company ?:</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>130</v>
-      </c>
+        <v>17. Frameworks Front-end</v>
+      </c>
+      <c r="G11" s="14"/>
       <c r="I11" s="17">
         <v>7</v>
       </c>
@@ -8833,23 +8838,23 @@
       </c>
       <c r="B12" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software organization and team sizeQ8</v>
+        <v>Legal problemsQ15</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F12" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>10. Average people who make a software project:</v>
+        <v>18. In what circumstances reuse of software in your organization depend on legal matters, such as legislation or issues contractuales.2</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I12" s="17">
         <v>8</v>
@@ -9099,23 +9104,23 @@
       </c>
       <c r="B13" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Project team experienceQ9</v>
+        <v>Economic feasibilityQ16.1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F13" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>11. The average experience of the / the software development teams is: Note: If your company's experience development teams distributed depending on the complexity or size of projects, you can select several options.</v>
+        <v>19. Reuse is economically feasible in my organization.</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I13" s="17">
         <v>9</v>
@@ -9365,22 +9370,24 @@
       </c>
       <c r="B14" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software organization and team sizeQ10</v>
+        <v>Reward and incentivesQ16.2</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F14" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>12. What is the size of the / the project (s) developed (s) in the enterprise Note: the word resource refers to staff time, supplies, budget, knowledge.</v>
-      </c>
-      <c r="G14" s="14"/>
+        <v>20. A policy of recognition (time, money, etc.) is established to promote the reuse of software.</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="I14" s="17">
         <v>10</v>
       </c>
@@ -9625,26 +9632,28 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B15" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software development approachQ11</v>
+        <v>Systematic reuse processQ16.3</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F15" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>13. Which of the following methods, methodologies and practices used in the company's software development process?</v>
-      </c>
-      <c r="G15" s="14"/>
+        <v>21. Developers follow a process of software reuse is defined in the software development process of the organization.</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>141</v>
+      </c>
       <c r="I15" s="17">
         <v>11</v>
       </c>
@@ -9893,23 +9902,23 @@
       </c>
       <c r="B16" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software development approachQ12</v>
+        <v>CASE Tools usageQ16.4</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F16" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>14. Which of the following programming paradigms used in projects in general ?:</v>
+        <v>22. The tools (language, frameworks, repositories, etc.) that the company uses have promoted the reuse / projects.</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I16" s="17">
         <v>12</v>
@@ -10155,27 +10164,27 @@
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B17" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Programming languageQ13</v>
+        <v>Software reuse measurementQ16.5</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F17" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>15. Which of the following programming languages ​​are used in the back-end and front-end for software projects?</v>
+        <v>23. The company measures the level of software reuse.</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I17" s="17">
         <v>13</v>
@@ -10421,26 +10430,28 @@
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B18" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Programming languageQ14.1</v>
+        <v>Managment commitmentQ17.1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>16. Frameworks Back-end</v>
-      </c>
-      <c r="G18" s="14"/>
+        <v>24. The senior management of the company supports and is committed to introducing and maintaining software reuse.</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="I18" s="17">
         <v>14</v>
       </c>
@@ -10685,26 +10696,28 @@
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B19" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Programming languageQ14.2</v>
+        <v>Software reuse educationQ17.2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F19" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>17. Frameworks Front-end</v>
-      </c>
-      <c r="G19" s="14"/>
+        <v>25. My organization promotes training and motivation in software reuse.</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="I19" s="17">
         <v>15</v>
       </c>
@@ -10949,28 +10962,26 @@
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B20" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Legal problemsQ15</v>
+        <v>CharacterizationQ18.1</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F20" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>18. In what circumstances reuse of software in your organization depend on legal matters, such as legislation or issues contractuales.2</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>135</v>
-      </c>
+        <v>26. Does the organization managed to achieve success (productivity gains / quality) projects through software reuse practices? Select scale smiling</v>
+      </c>
+      <c r="G20" s="14"/>
       <c r="I20" s="17">
         <v>16</v>
       </c>
@@ -11215,28 +11226,24 @@
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>645</v>
+        <v>103</v>
       </c>
       <c r="B21" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Economic feasibilityQ16.1</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>93</v>
-      </c>
+        <v>Q18.2</v>
+      </c>
+      <c r="C21" s="14"/>
       <c r="D21" s="14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F21" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>19. Reuse is economically feasible in my organization.</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>136</v>
-      </c>
+        <v>27. What factors do you think contributed to the failure or success of the use of practices you think?</v>
+      </c>
+      <c r="G21" s="14"/>
       <c r="I21" s="17">
         <v>17</v>
       </c>
@@ -11481,28 +11488,26 @@
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B22" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Reward and incentivesQ16.2</v>
+        <v>Development of assets for reuseQ19</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F22" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>20. A policy of recognition (time, money, etc.) is established to promote the reuse of software.</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>137</v>
-      </c>
+        <v>28. Which of the following artifacts are created in your company?</v>
+      </c>
+      <c r="G22" s="14"/>
       <c r="I22" s="17">
         <v>18</v>
       </c>
@@ -11751,24 +11756,22 @@
       </c>
       <c r="B23" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Systematic reuse processQ16.3</v>
+        <v>Specific function in the software reuse processQ2</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F23" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>21. Developers follow a process of software reuse is defined in the software development process of the organization.</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>141</v>
-      </c>
+        <v>4. What is your role in the company?</v>
+      </c>
+      <c r="G23" s="14"/>
       <c r="I23" s="17">
         <v>19</v>
       </c>
@@ -12013,27 +12016,27 @@
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B24" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>CASE Tools usageQ16.4</v>
+        <v>Development of assets for reuseQ20</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F24" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>22. The tools (language, frameworks, repositories, etc.) that the company uses have promoted the reuse / projects.</v>
+        <v>29. Which of the following artifacts are created to be reusable in downstream applications?</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I24" s="17">
         <v>20</v>
@@ -12283,23 +12286,23 @@
       </c>
       <c r="B25" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software reuse measurementQ16.5</v>
+        <v>Configuration management of the reusable assetsQ21</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F25" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>23. The company measures the level of software reuse.</v>
+        <v>30. Which of the following devices have configuration management and change control?</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I25" s="17">
         <v>21</v>
@@ -12545,27 +12548,27 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B26" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Managment commitmentQ17.1</v>
+        <v>Kind of reused assetsQ22.1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>24. The senior management of the company supports and is committed to introducing and maintaining software reuse.</v>
+        <v>31. How much of the following devices is composed of reusable parts? Requisitos39</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>138</v>
+        <v>659</v>
       </c>
       <c r="I26" s="17">
         <v>22</v>
@@ -12811,27 +12814,27 @@
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B27" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software reuse educationQ17.2</v>
+        <v>Kind of reused assetsQ22.2</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F27" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>25. My organization promotes training and motivation in software reuse.</v>
+        <v>32. How much of the following devices is composed of reusable parts? Stories Usuario40</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>139</v>
+        <v>659</v>
       </c>
       <c r="I27" s="17">
         <v>23</v>
@@ -13077,26 +13080,28 @@
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B28" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>CharacterizationQ18.1</v>
+        <v>Kind of reused assetsQ22.3</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F28" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>26. Does the organization managed to achieve success (productivity gains / quality) projects through software reuse practices? Select scale smiling</v>
-      </c>
-      <c r="G28" s="14"/>
+        <v>33. How much of the following devices is composed of reusable parts? High Level Design (Architecture) 41</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>659</v>
+      </c>
       <c r="I28" s="17">
         <v>24</v>
       </c>
@@ -13341,24 +13346,28 @@
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>648</v>
       </c>
       <c r="B29" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Q18.2</v>
-      </c>
-      <c r="C29" s="14"/>
+        <v>Kind of reused assetsQ22.4</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="D29" s="14" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F29" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>27. What factors do you think contributed to the failure or success of the use of practices you think?</v>
-      </c>
-      <c r="G29" s="14"/>
+        <v>34. How much of the following devices is composed of reusable parts? Design detallado42</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>659</v>
+      </c>
       <c r="I29" s="17">
         <v>25</v>
       </c>
@@ -13607,22 +13616,24 @@
       </c>
       <c r="B30" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Development of assets for reuseQ19</v>
+        <v>Kind of reused assetsQ22.5</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F30" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>28. Which of the following artifacts are created in your company?</v>
-      </c>
-      <c r="G30" s="14"/>
+        <v>35. How much of the following devices is composed of reusable parts? Components software43</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>659</v>
+      </c>
       <c r="I30" s="17">
         <v>26</v>
       </c>
@@ -13871,23 +13882,23 @@
       </c>
       <c r="B31" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Development of assets for reuseQ20</v>
+        <v>Kind of reused assetsQ22.6</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F31" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>29. Which of the following artifacts are created to be reusable in downstream applications?</v>
+        <v>36. How much of the following devices is composed of reusable parts? Case prueba44</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>144</v>
+        <v>659</v>
       </c>
       <c r="I31" s="17">
         <v>27</v>
@@ -14137,23 +14148,23 @@
       </c>
       <c r="B32" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Configuration management of the reusable assetsQ21</v>
+        <v>Kind of reused assetsQ22.7</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F32" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>30. Which of the following devices have configuration management and change control?</v>
+        <v>37. How much of the following devices is composed of reusable parts? Other What?</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>145</v>
+        <v>659</v>
       </c>
       <c r="I32" s="17">
         <v>28</v>
@@ -14403,22 +14414,24 @@
       </c>
       <c r="B33" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.1</v>
+        <v>Origin of the reused assetsQ23</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F33" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>31. How much of the following devices is composed of reusable parts? Requisitos39</v>
-      </c>
-      <c r="G33" s="14"/>
+        <v>38. In your company, what is the origin of the artifacts of the / the project (s)?</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
@@ -14492,22 +14505,24 @@
       </c>
       <c r="B34" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.2</v>
+        <v>Specific function in the software reuse processQ24.1</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>490</v>
       </c>
       <c r="F34" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>32. How much of the following devices is composed of reusable parts? Stories Usuario40</v>
-      </c>
-      <c r="G34" s="14"/>
+        <v>39. Does the company have a role dedicated to the creation of reusable artifacts?</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
@@ -14577,26 +14592,28 @@
     </row>
     <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B35" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.3</v>
+        <v>Independent reusable assets development teamQ24.2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>25</v>
+        <v>109</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="F35" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>33. How much of the following devices is composed of reusable parts? High Level Design (Architecture) 41</v>
-      </c>
-      <c r="G35" s="14"/>
+        <v>40. Does the company have an independent team developing reusable artifacts?</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>658</v>
+      </c>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
@@ -14670,22 +14687,24 @@
       </c>
       <c r="B36" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.4</v>
+        <v>Previous development of reusable assetsQ25</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F36" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>34. How much of the following devices is composed of reusable parts? Design detallado42</v>
-      </c>
-      <c r="G36" s="14"/>
+        <v>41. At what point is reusable artifacts developed for software projects?</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>660</v>
+      </c>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -14759,20 +14778,20 @@
       </c>
       <c r="B37" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.5</v>
+        <v>Development of assets for reuseQ26.1</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F37" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>35. How much of the following devices is composed of reusable parts? Components software43</v>
+        <v>42. Artifacts and / or reusable software components are used in the company:</v>
       </c>
       <c r="G37" s="14"/>
       <c r="L37"/>
@@ -14848,20 +14867,20 @@
       </c>
       <c r="B38" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.6</v>
+        <v>Development of assets for reuseQ26.2</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F38" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>36. How much of the following devices is composed of reusable parts? Case prueba44</v>
+        <v>43. Why NOT reusable artifacts created in the company or are not considered valuable use? If so be it</v>
       </c>
       <c r="G38" s="14"/>
       <c r="L38"/>
@@ -14937,22 +14956,24 @@
       </c>
       <c r="B39" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.7</v>
+        <v>Software certification processQ27</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F39" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>37. How much of the following devices is composed of reusable parts? Other What?</v>
-      </c>
-      <c r="G39" s="14"/>
+        <v>44. We have a valuable process for certifying components reusable software.</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -15022,27 +15043,27 @@
     </row>
     <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B40" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Origin of the reused assetsQ23</v>
+        <v>Repository systems usageQ28</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F40" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>38. In your company, what is the origin of the artifacts of the / the project (s)?</v>
+        <v>45. The support of the repository is effective and efficient software reuse.</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -15113,28 +15134,26 @@
     </row>
     <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B41" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Specific function in the software reuse processQ24.1</v>
+        <v>CASE Tools usageQ29</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>490</v>
+        <v>97</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F41" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>39. Does the company have a role dedicated to the creation of reusable artifacts?</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>147</v>
-      </c>
+        <v>46. ​​What tools the company uses for software reuse?</v>
+      </c>
+      <c r="G41" s="14"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -15208,22 +15227,24 @@
       </c>
       <c r="B42" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Independent reusable assets development teamQ24.2</v>
+        <v>Software organization and team sizeQ3</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>491</v>
+        <v>75</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="F42" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>40. Does the company have an independent team developing reusable artifacts?</v>
-      </c>
-      <c r="G42" s="14"/>
+        <v>5. Company size:</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -15293,26 +15314,28 @@
     </row>
     <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B43" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Previous development of reusable assetsQ25</v>
+        <v>Product family approachQ30</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>41. At what point is reusable artifacts developed for software projects?</v>
-      </c>
-      <c r="G43" s="14"/>
+        <v>47. What related products that are developed in your organization?</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -15382,26 +15405,28 @@
     </row>
     <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B44" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Development of assets for reuseQ26.1</v>
+        <v>Domain EngineeringQ31.1</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F44" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>42. Artifacts and / or reusable software components are used in the company:</v>
-      </c>
-      <c r="G44" s="14"/>
+        <v>48. We conduct market analysis to determine which domains effectively be modeled and reusable components will be developed.</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -15471,28 +15496,26 @@
     </row>
     <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B45" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Development of assets for reuseQ26.2</v>
+        <v>Domain EngineeringQ31.2</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F45" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>43. Why NOT reusable artifacts created in the company or are not considered valuable use? If so be it</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>143</v>
-      </c>
+        <v>49. capture, they specify, analyze and review the requirements taking into account the differences between various products</v>
+      </c>
+      <c r="G45" s="14"/>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -15562,28 +15585,26 @@
     </row>
     <row r="46" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B46" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software certification processQ27</v>
+        <v>Domain EngineeringQ31.3</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F46" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>44. We have a valuable process for certifying components reusable software.</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>150</v>
-      </c>
+        <v>50. In designing an architecture differences are taken into account among several products</v>
+      </c>
+      <c r="G46" s="14"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -15653,24 +15674,22 @@
     </row>
     <row r="47" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>647</v>
+        <v>103</v>
       </c>
       <c r="B47" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Repository systems usageQ28</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>115</v>
-      </c>
+        <v>Q32</v>
+      </c>
+      <c r="C47" s="14"/>
       <c r="D47" s="14" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F47" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>45. The support of the repository is effective and efficient software reuse.</v>
+        <v>51.¿Qué barriers have prevented a good reuse of software in your company?</v>
       </c>
       <c r="G47" s="14"/>
       <c r="L47"/>
@@ -15742,28 +15761,24 @@
     </row>
     <row r="48" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>647</v>
+        <v>103</v>
       </c>
       <c r="B48" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>CASE Tools usageQ29</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>97</v>
-      </c>
+        <v>Q33</v>
+      </c>
+      <c r="C48" s="14"/>
       <c r="D48" s="14" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F48" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>46. ​​What tools the company uses for software reuse?</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>131</v>
-      </c>
+        <v>52. Which of the following benefits associated with software reuse are most important?</v>
+      </c>
+      <c r="G48" s="14"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -15837,24 +15852,22 @@
       </c>
       <c r="B49" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Product family approachQ30</v>
+        <v>Product family approachQ34</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>121</v>
+      <c r="D49" s="14" t="s">
+        <v>445</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F49" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>47. What related products that are developed in your organization?</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>132</v>
-      </c>
+        <v>53. Has heard talk about product lines management software reuse and variability? The software product lines refer to a set of systems that share characteristics that are developed from</v>
+      </c>
+      <c r="G49" s="14"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -15924,24 +15937,22 @@
     </row>
     <row r="50" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>646</v>
+        <v>103</v>
       </c>
       <c r="B50" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Domain EngineeringQ31.1</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>122</v>
+        <v>Q35</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14" t="s">
+        <v>446</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F50" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>48. We conduct market analysis to determine which domains effectively be modeled and reusable components will be developed.</v>
+        <v>54. If your company uses another strategy for software reuse or has a different view, please explain.</v>
       </c>
       <c r="G50" s="14"/>
       <c r="L50"/>
@@ -16017,22 +16028,24 @@
       </c>
       <c r="B51" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Domain EngineeringQ31.2</v>
+        <v>Application domainQ4</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F51" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>49. capture, they specify, analyze and review the requirements taking into account the differences between various products</v>
-      </c>
-      <c r="G51" s="14"/>
+        <v>6. To market the company offers its products and / or services:</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -16102,26 +16115,28 @@
     </row>
     <row r="52" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B52" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Domain EngineeringQ31.3</v>
+        <v>Quality models usageQ5</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F52" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>50. In designing an architecture differences are taken into account among several products</v>
-      </c>
-      <c r="G52" s="14"/>
+        <v>7. What systematic approach (quality model) software uses or owns the company?</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
@@ -16191,22 +16206,22 @@
     </row>
     <row r="53" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B53" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Q32</v>
+        <v>Q6</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F53" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>51.¿Qué barriers have prevented a good reuse of software in your company?</v>
+        <v>8. What services associated with software development company offering?</v>
       </c>
       <c r="G53" s="14"/>
       <c r="L53"/>
@@ -16278,24 +16293,28 @@
     </row>
     <row r="54" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>103</v>
+        <v>646</v>
       </c>
       <c r="B54" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Q33</v>
-      </c>
-      <c r="C54" s="14"/>
+        <v>Kind of software developedQ7</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="D54" s="14" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F54" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>52. Which of the following benefits associated with software reuse are most important?</v>
-      </c>
-      <c r="G54" s="14"/>
+        <v>9. What is the purpose and type of software built in the company ?:</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
@@ -16365,26 +16384,28 @@
     </row>
     <row r="55" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B55" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Product family approachQ34</v>
+        <v>Software organization and team sizeQ8</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F55" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>53. Has heard talk about product lines management software reuse and variability? The software product lines refer to a set of systems that share characteristics that are developed from</v>
-      </c>
-      <c r="G55" s="14"/>
+        <v>10. Average people who make a software project:</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
@@ -16454,24 +16475,28 @@
     </row>
     <row r="56" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>103</v>
+        <v>645</v>
       </c>
       <c r="B56" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Q35</v>
-      </c>
-      <c r="C56" s="14"/>
+        <v>Project team experienceQ9</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="D56" s="14" t="s">
-        <v>446</v>
+        <v>43</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F56" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>54. If your company uses another strategy for software reuse or has a different view, please explain.</v>
-      </c>
-      <c r="G56" s="14"/>
+        <v>11. The average experience of the / the software development teams is: Note: If your company's experience development teams distributed depending on the complexity or size of projects, you can select several options.</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
@@ -17035,7 +17060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29A22BA-D008-44ED-AC05-D55235709D65}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Proyectos GitHub\SoftwareReuse_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9599757F-05F1-4A84-8C2A-A8FD7976E0A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D33BF-A09D-4EF1-91D9-494FC8EEF70C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="11760" windowHeight="11835" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="663">
   <si>
     <t>respondent_id</t>
   </si>
@@ -424,75 +424,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>H01</t>
-  </si>
-  <si>
-    <t>H02</t>
-  </si>
-  <si>
-    <t>H03</t>
-  </si>
-  <si>
-    <t>H04</t>
-  </si>
-  <si>
-    <t>H05</t>
-  </si>
-  <si>
-    <t>H06</t>
-  </si>
-  <si>
-    <t>H07</t>
-  </si>
-  <si>
-    <t>H08</t>
-  </si>
-  <si>
-    <t>H09</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>H13</t>
-  </si>
-  <si>
-    <t>H14</t>
-  </si>
-  <si>
-    <t>H15</t>
-  </si>
-  <si>
-    <t>H16</t>
-  </si>
-  <si>
-    <t>H17</t>
-  </si>
-  <si>
-    <t>H18</t>
-  </si>
-  <si>
-    <t>H21</t>
-  </si>
-  <si>
-    <t>H22</t>
-  </si>
-  <si>
-    <t>H23</t>
-  </si>
-  <si>
-    <t>H24</t>
-  </si>
-  <si>
-    <t>H25</t>
-  </si>
-  <si>
-    <t>H26</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -1705,9 +1636,6 @@
     <t>50. In designing an architecture differences are taken into account among several products</t>
   </si>
   <si>
-    <t>51.¿Qué barriers have prevented a good reuse of software in your company?</t>
-  </si>
-  <si>
     <t>52. Which of the following benefits associated with software reuse are most important?</t>
   </si>
   <si>
@@ -1963,9 +1891,6 @@
     <t>Communications</t>
   </si>
   <si>
-    <t>Associated Hypotheses</t>
-  </si>
-  <si>
     <t>Dependent Variable</t>
   </si>
   <si>
@@ -2011,13 +1936,94 @@
     <t>Legislation, contractual issues, Company issues</t>
   </si>
   <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>H19</t>
-  </si>
-  <si>
-    <t>H20</t>
+    <t>Survey main question</t>
+  </si>
+  <si>
+    <t>Complementary question</t>
+  </si>
+  <si>
+    <t>51.¿What barriers have prevented a good reuse of software in your company?</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>R08</t>
+  </si>
+  <si>
+    <t>R09</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>Associated Research Question</t>
   </si>
 </sst>
 </file>
@@ -2654,8 +2660,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2" displayName="Table2" ref="A2:G56" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:G56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G56">
-    <sortCondition ref="E2:E56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:G56">
+    <sortCondition ref="G2:G56"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Dimension" dataDxfId="7"/>
@@ -2668,7 +2674,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Question" dataDxfId="2">
       <calculatedColumnFormula>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{88E61EA0-31C1-40F1-9E3A-FF520DEDA63B}" name="Associated Hypotheses" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{88E61EA0-31C1-40F1-9E3A-FF520DEDA63B}" name="Associated Research Question" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2976,7 +2982,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,26 +2990,26 @@
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="92.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3014,10 +3020,10 @@
         <v>77</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="E2" s="14"/>
     </row>
@@ -3029,10 +3035,10 @@
         <v>77</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="E3" s="14"/>
     </row>
@@ -3044,25 +3050,25 @@
         <v>77</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="E5" s="14"/>
     </row>
@@ -3071,13 +3077,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="E6" s="14">
         <v>4</v>
@@ -3088,13 +3094,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="E7" s="14">
         <v>17</v>
@@ -3105,13 +3111,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="E8" s="14">
         <v>8</v>
@@ -3122,13 +3128,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="E9" s="14">
         <v>12</v>
@@ -3142,10 +3148,10 @@
         <v>70</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3156,10 +3162,10 @@
         <v>70</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="E11" s="14"/>
     </row>
@@ -3171,10 +3177,10 @@
         <v>70</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="E12" s="14"/>
     </row>
@@ -3186,10 +3192,10 @@
         <v>94</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="E13" s="14">
         <v>5</v>
@@ -3203,10 +3209,10 @@
         <v>94</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="E14" s="14">
         <v>5</v>
@@ -3220,10 +3226,10 @@
         <v>94</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="E15" s="14">
         <v>5</v>
@@ -3237,10 +3243,10 @@
         <v>94</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="E16" s="14">
         <v>5</v>
@@ -3254,10 +3260,10 @@
         <v>94</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="E17" s="14">
         <v>5</v>
@@ -3271,10 +3277,10 @@
         <v>94</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="E18" s="14">
         <v>6</v>
@@ -3288,10 +3294,10 @@
         <v>94</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="E19" s="14">
         <v>6</v>
@@ -3305,10 +3311,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="E20" s="14">
         <v>11</v>
@@ -3322,10 +3328,10 @@
         <v>70</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -3334,13 +3340,13 @@
         <v>46</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="E22" s="14">
         <v>13</v>
@@ -3351,13 +3357,13 @@
         <v>36</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="E23" s="14">
         <v>14</v>
@@ -3368,13 +3374,13 @@
         <v>47</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="E24" s="14">
         <v>14</v>
@@ -3385,13 +3391,13 @@
         <v>48</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="E25" s="14">
         <v>14</v>
@@ -3405,10 +3411,10 @@
         <v>94</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="E26" s="14">
         <v>6</v>
@@ -3422,10 +3428,10 @@
         <v>94</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="E27" s="14">
         <v>6</v>
@@ -3439,10 +3445,10 @@
         <v>94</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="E28" s="14">
         <v>6</v>
@@ -3456,10 +3462,10 @@
         <v>94</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="E29" s="14">
         <v>6</v>
@@ -3473,10 +3479,10 @@
         <v>94</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="E30" s="14">
         <v>6</v>
@@ -3490,10 +3496,10 @@
         <v>94</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="E31" s="14">
         <v>6</v>
@@ -3507,10 +3513,10 @@
         <v>94</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="E32" s="14">
         <v>6</v>
@@ -3521,13 +3527,13 @@
         <v>49</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="E33" s="14">
         <v>5</v>
@@ -3535,16 +3541,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="E34" s="14">
         <v>2</v>
@@ -3552,16 +3558,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="E35" s="14">
         <v>2</v>
@@ -3572,13 +3578,13 @@
         <v>51</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="E36" s="14">
         <v>3</v>
@@ -3592,10 +3598,10 @@
         <v>94</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="E37" s="14">
         <v>9</v>
@@ -3609,10 +3615,10 @@
         <v>70</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="E38" s="14"/>
     </row>
@@ -3624,10 +3630,10 @@
         <v>94</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="E39" s="14">
         <v>6</v>
@@ -3641,10 +3647,10 @@
         <v>94</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="E40" s="14">
         <v>6</v>
@@ -3658,10 +3664,10 @@
         <v>70</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="E41" s="14"/>
     </row>
@@ -3673,10 +3679,10 @@
         <v>77</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="E42" s="14">
         <v>2</v>
@@ -3687,13 +3693,13 @@
         <v>52</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="E43" s="14">
         <v>4</v>
@@ -3707,10 +3713,10 @@
         <v>94</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="E44" s="14">
         <v>6</v>
@@ -3724,10 +3730,10 @@
         <v>94</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="E45" s="14">
         <v>6</v>
@@ -3741,10 +3747,10 @@
         <v>94</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="E46" s="14">
         <v>6</v>
@@ -3755,13 +3761,13 @@
         <v>53</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="E47" s="14">
         <v>16</v>
@@ -3772,13 +3778,13 @@
         <v>54</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="E48" s="14">
         <v>15</v>
@@ -3792,10 +3798,10 @@
         <v>77</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="E49" s="14">
         <v>2</v>
@@ -3809,10 +3815,10 @@
         <v>70</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="E50" s="14"/>
     </row>
@@ -3821,13 +3827,13 @@
         <v>37</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="E51" s="14">
         <v>20</v>
@@ -3838,13 +3844,13 @@
         <v>38</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="E52" s="14">
         <v>11</v>
@@ -3855,13 +3861,13 @@
         <v>39</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="E53" s="14">
         <v>11</v>
@@ -3872,13 +3878,13 @@
         <v>40</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="E54" s="14">
         <v>13</v>
@@ -3892,10 +3898,10 @@
         <v>70</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="E55" s="14"/>
     </row>
@@ -3904,13 +3910,13 @@
         <v>41</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="E56" s="14">
         <v>4</v>
@@ -3921,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="E57" s="14"/>
     </row>
@@ -3936,10 +3942,10 @@
         <v>9</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>9</v>
@@ -3960,7 +3966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -3978,16 +3984,16 @@
         <v>8</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="F1" s="11"/>
     </row>
@@ -3999,13 +4005,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="F2" s="11"/>
     </row>
@@ -4017,13 +4023,13 @@
         <v>37</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="15"/>
@@ -4036,13 +4042,13 @@
         <v>37</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="15"/>
@@ -4055,13 +4061,13 @@
         <v>37</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="15"/>
@@ -4074,13 +4080,13 @@
         <v>37</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="15"/>
@@ -4093,13 +4099,13 @@
         <v>37</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="15"/>
@@ -4112,13 +4118,13 @@
         <v>37</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="15"/>
@@ -4131,13 +4137,13 @@
         <v>37</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="15"/>
@@ -4150,13 +4156,13 @@
         <v>37</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="15"/>
@@ -4169,13 +4175,13 @@
         <v>37</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="15"/>
@@ -4188,13 +4194,13 @@
         <v>37</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="15"/>
@@ -4207,13 +4213,13 @@
         <v>37</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="15"/>
@@ -4226,13 +4232,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="15"/>
@@ -4245,13 +4251,13 @@
         <v>37</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="15"/>
@@ -4264,13 +4270,13 @@
         <v>37</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="15"/>
@@ -4283,13 +4289,13 @@
         <v>37</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="15"/>
@@ -4302,13 +4308,13 @@
         <v>37</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="15"/>
@@ -4321,13 +4327,13 @@
         <v>37</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="15"/>
@@ -4340,13 +4346,13 @@
         <v>37</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="15"/>
@@ -4359,10 +4365,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>103</v>
@@ -4378,13 +4384,13 @@
         <v>38</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="15"/>
@@ -4397,13 +4403,13 @@
         <v>38</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="15"/>
@@ -4416,13 +4422,13 @@
         <v>38</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="15"/>
@@ -4435,13 +4441,13 @@
         <v>38</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="15"/>
@@ -4454,13 +4460,13 @@
         <v>38</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="15"/>
@@ -4473,13 +4479,13 @@
         <v>38</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="15"/>
@@ -4492,13 +4498,13 @@
         <v>38</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="15"/>
@@ -4511,13 +4517,13 @@
         <v>38</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="15"/>
@@ -4530,13 +4536,13 @@
         <v>38</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="15"/>
@@ -4549,13 +4555,13 @@
         <v>38</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="15"/>
@@ -4568,10 +4574,10 @@
         <v>38</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>103</v>
@@ -4587,13 +4593,13 @@
         <v>40</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="15"/>
@@ -4606,13 +4612,13 @@
         <v>40</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="15"/>
@@ -4625,13 +4631,13 @@
         <v>40</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="15"/>
@@ -4644,13 +4650,13 @@
         <v>40</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="15"/>
@@ -4663,13 +4669,13 @@
         <v>40</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="15"/>
@@ -4682,13 +4688,13 @@
         <v>40</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="15"/>
@@ -4701,13 +4707,13 @@
         <v>40</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="15"/>
@@ -4720,13 +4726,13 @@
         <v>40</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="15"/>
@@ -4739,13 +4745,13 @@
         <v>40</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="15"/>
@@ -4758,13 +4764,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="15"/>
@@ -4777,13 +4783,13 @@
         <v>40</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="15"/>
@@ -4796,13 +4802,13 @@
         <v>40</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="15"/>
@@ -4815,10 +4821,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>103</v>
@@ -4834,13 +4840,13 @@
         <v>41</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="15"/>
@@ -4853,13 +4859,13 @@
         <v>41</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="15"/>
@@ -4872,13 +4878,13 @@
         <v>41</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="15"/>
@@ -4891,13 +4897,13 @@
         <v>41</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="15"/>
@@ -4910,13 +4916,13 @@
         <v>42</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="15"/>
@@ -4929,13 +4935,13 @@
         <v>42</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="15"/>
@@ -4948,13 +4954,13 @@
         <v>42</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="15"/>
@@ -4967,13 +4973,13 @@
         <v>42</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="15"/>
@@ -4986,13 +4992,13 @@
         <v>43</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="15"/>
@@ -5005,13 +5011,13 @@
         <v>43</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="15"/>
@@ -5024,13 +5030,13 @@
         <v>43</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="15"/>
@@ -5043,13 +5049,13 @@
         <v>43</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="15"/>
@@ -5062,13 +5068,13 @@
         <v>43</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="15"/>
@@ -5081,13 +5087,13 @@
         <v>43</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="15"/>
@@ -5100,13 +5106,13 @@
         <v>43</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="15"/>
@@ -5119,13 +5125,13 @@
         <v>43</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="15"/>
@@ -5138,13 +5144,13 @@
         <v>43</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="15"/>
@@ -5157,13 +5163,13 @@
         <v>43</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="15"/>
@@ -5176,13 +5182,13 @@
         <v>43</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="15"/>
@@ -5195,13 +5201,13 @@
         <v>43</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="15"/>
@@ -5214,13 +5220,13 @@
         <v>43</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="15"/>
@@ -5233,13 +5239,13 @@
         <v>43</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="15"/>
@@ -5252,13 +5258,13 @@
         <v>43</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="15"/>
@@ -5271,13 +5277,13 @@
         <v>43</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="15"/>
@@ -5290,10 +5296,10 @@
         <v>43</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>103</v>
@@ -5309,13 +5315,13 @@
         <v>44</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="15"/>
@@ -5328,13 +5334,13 @@
         <v>44</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="15"/>
@@ -5347,13 +5353,13 @@
         <v>44</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="15"/>
@@ -5366,13 +5372,13 @@
         <v>44</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="15"/>
@@ -5385,13 +5391,13 @@
         <v>44</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="15"/>
@@ -5404,13 +5410,13 @@
         <v>44</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="15"/>
@@ -5423,13 +5429,13 @@
         <v>44</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="15"/>
@@ -5442,10 +5448,10 @@
         <v>44</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>103</v>
@@ -5461,13 +5467,13 @@
         <v>45</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="15"/>
@@ -5480,7 +5486,7 @@
         <v>45</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>2</v>
@@ -5499,13 +5505,13 @@
         <v>45</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="15"/>
@@ -5518,7 +5524,7 @@
         <v>45</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>3</v>
@@ -5537,13 +5543,13 @@
         <v>45</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="15"/>
@@ -5556,13 +5562,13 @@
         <v>45</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="15"/>
@@ -5575,7 +5581,7 @@
         <v>45</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>4</v>
@@ -5594,7 +5600,7 @@
         <v>45</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>5</v>
@@ -5613,7 +5619,7 @@
         <v>45</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>6</v>
@@ -5632,13 +5638,13 @@
         <v>45</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="15"/>
@@ -5651,13 +5657,13 @@
         <v>45</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="15"/>
@@ -5670,10 +5676,10 @@
         <v>45</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>103</v>
@@ -5689,13 +5695,13 @@
         <v>46</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="15"/>
@@ -5708,13 +5714,13 @@
         <v>46</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="15"/>
@@ -5727,13 +5733,13 @@
         <v>46</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="15"/>
@@ -5746,13 +5752,13 @@
         <v>46</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="15"/>
@@ -5765,13 +5771,13 @@
         <v>46</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="15"/>
@@ -5784,13 +5790,13 @@
         <v>46</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="F96" s="11"/>
       <c r="G96" s="15"/>
@@ -5803,13 +5809,13 @@
         <v>46</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="15"/>
@@ -5822,13 +5828,13 @@
         <v>46</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="15"/>
@@ -5841,13 +5847,13 @@
         <v>46</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="F99" s="11"/>
       <c r="G99" s="15"/>
@@ -5860,13 +5866,13 @@
         <v>46</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="15"/>
@@ -5879,13 +5885,13 @@
         <v>46</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="15"/>
@@ -5898,13 +5904,13 @@
         <v>46</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="15"/>
@@ -5917,10 +5923,10 @@
         <v>46</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>103</v>
@@ -5936,13 +5942,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="15"/>
@@ -5955,13 +5961,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="15"/>
@@ -5974,13 +5980,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="F106" s="11"/>
       <c r="G106" s="15"/>
@@ -5993,13 +5999,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="F107" s="11"/>
       <c r="G107" s="15"/>
@@ -6012,13 +6018,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="F108" s="11"/>
       <c r="G108" s="15"/>
@@ -6031,13 +6037,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="F109" s="11"/>
       <c r="G109" s="15"/>
@@ -6050,13 +6056,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F110" s="11"/>
       <c r="G110" s="15"/>
@@ -6069,13 +6075,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="F111" s="11"/>
       <c r="G111" s="15"/>
@@ -6088,13 +6094,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="F112" s="11"/>
       <c r="G112" s="15"/>
@@ -6107,13 +6113,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="F113" s="11"/>
       <c r="G113" s="15"/>
@@ -6126,13 +6132,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="F114" s="11"/>
       <c r="G114" s="15"/>
@@ -6145,13 +6151,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="15"/>
@@ -6164,13 +6170,13 @@
         <v>47</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="F116" s="11"/>
       <c r="G116" s="15"/>
@@ -6183,10 +6189,10 @@
         <v>47</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>103</v>
@@ -6202,13 +6208,13 @@
         <v>48</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="15"/>
@@ -6221,13 +6227,13 @@
         <v>48</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="F119" s="11"/>
       <c r="G119" s="15"/>
@@ -6240,13 +6246,13 @@
         <v>48</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="15"/>
@@ -6259,13 +6265,13 @@
         <v>48</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="15"/>
@@ -6278,13 +6284,13 @@
         <v>48</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="F122" s="11"/>
       <c r="G122" s="15"/>
@@ -6297,13 +6303,13 @@
         <v>48</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="F123" s="11"/>
       <c r="G123" s="15"/>
@@ -6316,13 +6322,13 @@
         <v>48</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F124" s="11"/>
       <c r="G124" s="15"/>
@@ -6335,13 +6341,13 @@
         <v>48</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="F125" s="11"/>
       <c r="G125" s="15"/>
@@ -6354,13 +6360,13 @@
         <v>48</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="F126" s="11"/>
       <c r="G126" s="15"/>
@@ -6373,13 +6379,13 @@
         <v>48</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="15"/>
@@ -6392,13 +6398,13 @@
         <v>48</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="F128" s="11"/>
       <c r="G128" s="15"/>
@@ -6411,13 +6417,13 @@
         <v>48</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="15"/>
@@ -6430,13 +6436,13 @@
         <v>48</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="15"/>
@@ -6449,10 +6455,10 @@
         <v>48</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>103</v>
@@ -6468,13 +6474,13 @@
         <v>49</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="F132" s="11"/>
       <c r="G132" s="15"/>
@@ -6487,13 +6493,13 @@
         <v>49</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="F133" s="11"/>
       <c r="G133" s="15"/>
@@ -6506,13 +6512,13 @@
         <v>49</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="F134" s="11"/>
       <c r="G134" s="15"/>
@@ -6525,13 +6531,13 @@
         <v>49</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="F135" s="11"/>
       <c r="G135" s="15"/>
@@ -6544,13 +6550,13 @@
         <v>49</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="F136" s="11"/>
       <c r="G136" s="15"/>
@@ -6563,13 +6569,13 @@
         <v>51</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="F137" s="11"/>
       <c r="G137" s="15"/>
@@ -6582,13 +6588,13 @@
         <v>51</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="F138" s="11"/>
       <c r="G138" s="15"/>
@@ -6601,13 +6607,13 @@
         <v>51</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="F139" s="11"/>
       <c r="G139" s="15"/>
@@ -6620,13 +6626,13 @@
         <v>52</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="F140" s="11"/>
       <c r="G140" s="15"/>
@@ -6639,13 +6645,13 @@
         <v>52</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="F141" s="11"/>
       <c r="G141" s="15"/>
@@ -6658,13 +6664,13 @@
         <v>52</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="F142" s="11"/>
       <c r="G142" s="15"/>
@@ -6677,10 +6683,10 @@
         <v>52</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>103</v>
@@ -6702,8 +6708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:BY59"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6713,7 +6719,7 @@
     <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="97" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="21.42578125" style="1" customWidth="1"/>
@@ -6727,25 +6733,25 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -6769,7 +6775,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>1. Company name</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
@@ -6795,15 +6803,17 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>2. City</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="I4" s="13" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="L4" s="20" t="s">
         <v>10</v>
@@ -6999,12 +7009,14 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>3. Department</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>75</v>
@@ -7244,7 +7256,7 @@
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="B6" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -7263,12 +7275,14 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>12. What is the size of the / the project (s) developed (s) in the enterprise Note: the word resource refers to staff time, supplies, budget, knowledge.</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="I6" s="17">
         <v>2</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>85</v>
@@ -7508,33 +7522,33 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B7" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software development approachQ11</v>
+        <v>Application domainQ4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F7" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>13. Which of the following methods, methodologies and practices used in the company's software development process?</v>
+        <v>6. To market the company offers its products and / or services:</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>148</v>
+        <v>636</v>
       </c>
       <c r="I7" s="17">
         <v>3</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>101</v>
@@ -7774,33 +7788,33 @@
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B8" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software development approachQ12</v>
+        <v>Kind of software developedQ7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>14. Which of the following programming paradigms used in projects in general ?:</v>
+        <v>9. What is the purpose and type of software built in the company ?:</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>148</v>
+        <v>637</v>
       </c>
       <c r="I8" s="17">
         <v>4</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>95</v>
@@ -8040,33 +8054,33 @@
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B9" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Programming languageQ13</v>
+        <v>Product family approachQ30</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>59</v>
+        <v>118</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F9" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>15. Which of the following programming languages ​​are used in the back-end and front-end for software projects?</v>
+        <v>47. What related products that are developed in your organization?</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>149</v>
+        <v>638</v>
       </c>
       <c r="I9" s="17">
         <v>5</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>109</v>
@@ -8306,7 +8320,7 @@
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="B10" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -8325,12 +8339,14 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>16. Frameworks Back-end</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="I10" s="17">
         <v>6</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>100</v>
@@ -8570,7 +8586,7 @@
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="B11" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -8589,12 +8605,14 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>17. Frameworks Front-end</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="I11" s="17">
         <v>7</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>91</v>
@@ -8834,33 +8852,33 @@
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="B12" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Legal problemsQ15</v>
+        <v>Domain EngineeringQ31.1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>92</v>
+        <v>120</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F12" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>18. In what circumstances reuse of software in your organization depend on legal matters, such as legislation or issues contractuales.2</v>
+        <v>48. We conduct market analysis to determine which domains effectively be modeled and reusable components will be developed.</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>135</v>
+        <v>639</v>
       </c>
       <c r="I12" s="17">
         <v>8</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>93</v>
@@ -9100,33 +9118,33 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="B13" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Economic feasibilityQ16.1</v>
+        <v>Software organization and team sizeQ3</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>19. Reuse is economically feasible in my organization.</v>
+        <v>5. Company size:</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>136</v>
+        <v>640</v>
       </c>
       <c r="I13" s="17">
         <v>9</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>118</v>
@@ -9366,33 +9384,33 @@
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="B14" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Reward and incentivesQ16.2</v>
+        <v>Software organization and team sizeQ8</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>20. A policy of recognition (time, money, etc.) is established to promote the reuse of software.</v>
+        <v>10. Average people who make a software project:</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>137</v>
+        <v>640</v>
       </c>
       <c r="I14" s="17">
         <v>10</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>83</v>
@@ -9632,33 +9650,33 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="B15" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Systematic reuse processQ16.3</v>
+        <v>Project team experienceQ9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F15" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>21. Developers follow a process of software reuse is defined in the software development process of the organization.</v>
+        <v>11. The average experience of the / the software development teams is: Note: If your company's experience development teams distributed depending on the complexity or size of projects, you can select several options.</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>141</v>
+        <v>641</v>
       </c>
       <c r="I15" s="17">
         <v>11</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>78</v>
@@ -9898,33 +9916,33 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="B16" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>CASE Tools usageQ16.4</v>
+        <v>Legal problemsQ15</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F16" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>22. The tools (language, frameworks, repositories, etc.) that the company uses have promoted the reuse / projects.</v>
+        <v>18. In what circumstances reuse of software in your organization depend on legal matters, such as legislation or issues contractuales.2</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>151</v>
+        <v>642</v>
       </c>
       <c r="I16" s="17">
         <v>12</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="K16" s="18" t="s">
         <v>120</v>
@@ -10164,33 +10182,33 @@
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="B17" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software reuse measurementQ16.5</v>
+        <v>Economic feasibilityQ16.1</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F17" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>23. The company measures the level of software reuse.</v>
+        <v>19. Reuse is economically feasible in my organization.</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>142</v>
+        <v>643</v>
       </c>
       <c r="I17" s="17">
         <v>13</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="K17" s="18" t="s">
         <v>86</v>
@@ -10430,33 +10448,33 @@
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="B18" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Managment commitmentQ17.1</v>
+        <v>Reward and incentivesQ16.2</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>24. The senior management of the company supports and is committed to introducing and maintaining software reuse.</v>
+        <v>20. A policy of recognition (time, money, etc.) is established to promote the reuse of software.</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>138</v>
+        <v>644</v>
       </c>
       <c r="I18" s="17">
         <v>14</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>88</v>
@@ -10696,33 +10714,33 @@
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="B19" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software reuse educationQ17.2</v>
+        <v>Managment commitmentQ17.1</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>25. My organization promotes training and motivation in software reuse.</v>
+        <v>24. The senior management of the company supports and is committed to introducing and maintaining software reuse.</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>139</v>
+        <v>645</v>
       </c>
       <c r="I19" s="17">
         <v>15</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>115</v>
@@ -10962,7 +10980,7 @@
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="B20" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -10981,12 +10999,14 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>26. Does the organization managed to achieve success (productivity gains / quality) projects through software reuse practices? Select scale smiling</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>633</v>
+      </c>
       <c r="I20" s="17">
         <v>16</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>97</v>
@@ -11243,15 +11263,17 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>27. What factors do you think contributed to the failure or success of the use of practices you think?</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="I21" s="17">
         <v>17</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="L21" s="16" t="str">
         <f>+IFERROR(IF(VLOOKUP($K21&amp;L$4,Table2[[Column1]:[Column1]],1,FALSE) = 0,"","X"),"")</f>
@@ -11488,7 +11510,7 @@
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B22" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -11507,12 +11529,14 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>28. Which of the following artifacts are created in your company?</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="I22" s="17">
         <v>18</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>96</v>
@@ -11752,7 +11776,7 @@
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B23" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -11771,12 +11795,14 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>4. What is your role in the company?</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="I23" s="17">
         <v>19</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>104</v>
@@ -12016,33 +12042,33 @@
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="B24" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Development of assets for reuseQ20</v>
+        <v>Software reuse educationQ17.2</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F24" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>29. Which of the following artifacts are created to be reusable in downstream applications?</v>
+        <v>25. My organization promotes training and motivation in software reuse.</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>144</v>
+        <v>646</v>
       </c>
       <c r="I24" s="17">
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>108</v>
@@ -12282,33 +12308,33 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="B25" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Configuration management of the reusable assetsQ21</v>
+        <v>Independent reusable assets development teamQ24.2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>48</v>
+        <v>109</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>468</v>
       </c>
       <c r="F25" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>30. Which of the following devices have configuration management and change control?</v>
+        <v>40. Does the company have an independent team developing reusable artifacts?</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>145</v>
+        <v>647</v>
       </c>
       <c r="I25" s="17">
         <v>21</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K25" s="18" t="s">
         <v>110</v>
@@ -12548,33 +12574,33 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B26" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.1</v>
+        <v>Quality models usageQ5</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F26" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>31. How much of the following devices is composed of reusable parts? Requisitos39</v>
+        <v>7. What systematic approach (quality model) software uses or owns the company?</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="I26" s="17">
         <v>22</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K26" s="18" t="s">
         <v>73</v>
@@ -12814,33 +12840,33 @@
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B27" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.2</v>
+        <v>Systematic reuse processQ16.3</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F27" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>32. How much of the following devices is composed of reusable parts? Stories Usuario40</v>
+        <v>21. Developers follow a process of software reuse is defined in the software development process of the organization.</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="I27" s="17">
         <v>23</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K27" s="18" t="s">
         <v>99</v>
@@ -13080,33 +13106,33 @@
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B28" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.3</v>
+        <v>Software reuse measurementQ16.5</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F28" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>33. How much of the following devices is composed of reusable parts? High Level Design (Architecture) 41</v>
+        <v>23. The company measures the level of software reuse.</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="I28" s="17">
         <v>24</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K28" s="18" t="s">
         <v>80</v>
@@ -13346,33 +13372,33 @@
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B29" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.4</v>
+        <v>Software certification processQ27</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>34. How much of the following devices is composed of reusable parts? Design detallado42</v>
+        <v>44. We have a valuable process for certifying components reusable software.</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="I29" s="17">
         <v>25</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K29" s="18" t="s">
         <v>106</v>
@@ -13612,33 +13638,33 @@
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B30" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.5</v>
+        <v>Development of assets for reuseQ20</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F30" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>35. How much of the following devices is composed of reusable parts? Components software43</v>
+        <v>29. Which of the following artifacts are created to be reusable in downstream applications?</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="I30" s="17">
         <v>26</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>105</v>
@@ -13878,33 +13904,33 @@
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B31" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.6</v>
+        <v>Configuration management of the reusable assetsQ21</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F31" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>36. How much of the following devices is composed of reusable parts? Case prueba44</v>
+        <v>30. Which of the following devices have configuration management and change control?</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="I31" s="17">
         <v>27</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="K31" s="18" t="s">
         <v>103</v>
@@ -14144,33 +14170,33 @@
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B32" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of reused assetsQ22.7</v>
+        <v>Kind of reused assetsQ22.1</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F32" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>37. How much of the following devices is composed of reusable parts? Other What?</v>
+        <v>31. How much of the following devices is composed of reusable parts? Requisitos39</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="I32" s="17">
         <v>28</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="K32" s="18" t="s">
         <v>68</v>
@@ -14410,27 +14436,27 @@
     </row>
     <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B33" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Origin of the reused assetsQ23</v>
+        <v>Kind of reused assetsQ22.2</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F33" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>38. In your company, what is the origin of the artifacts of the / the project (s)?</v>
+        <v>32. How much of the following devices is composed of reusable parts? Stories Usuario40</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>146</v>
+        <v>654</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -14501,27 +14527,27 @@
     </row>
     <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B34" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Specific function in the software reuse processQ24.1</v>
+        <v>Kind of reused assetsQ22.3</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>490</v>
+        <v>104</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="F34" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>39. Does the company have a role dedicated to the creation of reusable artifacts?</v>
+        <v>33. How much of the following devices is composed of reusable parts? High Level Design (Architecture) 41</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>147</v>
+        <v>654</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
@@ -14592,27 +14618,27 @@
     </row>
     <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="B35" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Independent reusable assets development teamQ24.2</v>
+        <v>Kind of reused assetsQ22.4</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>491</v>
+        <v>104</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="F35" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>40. Does the company have an independent team developing reusable artifacts?</v>
+        <v>34. How much of the following devices is composed of reusable parts? Design detallado42</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
@@ -14683,27 +14709,27 @@
     </row>
     <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B36" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Previous development of reusable assetsQ25</v>
+        <v>Kind of reused assetsQ22.5</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F36" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>41. At what point is reusable artifacts developed for software projects?</v>
+        <v>35. How much of the following devices is composed of reusable parts? Components software43</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -14774,7 +14800,7 @@
     </row>
     <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B37" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -14793,7 +14819,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>42. Artifacts and / or reusable software components are used in the company:</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G37" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
@@ -14863,7 +14891,7 @@
     </row>
     <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B38" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -14882,7 +14910,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>43. Why NOT reusable artifacts created in the company or are not considered valuable use? If so be it</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -14952,27 +14982,27 @@
     </row>
     <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B39" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software certification processQ27</v>
+        <v>Kind of reused assetsQ22.6</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F39" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>44. We have a valuable process for certifying components reusable software.</v>
+        <v>36. How much of the following devices is composed of reusable parts? Case prueba44</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>143</v>
+        <v>654</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
@@ -15043,27 +15073,27 @@
     </row>
     <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="B40" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Repository systems usageQ28</v>
+        <v>Kind of reused assetsQ22.7</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F40" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>45. The support of the repository is effective and efficient software reuse.</v>
+        <v>37. How much of the following devices is composed of reusable parts? Other What?</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>150</v>
+        <v>654</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -15134,7 +15164,7 @@
     </row>
     <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="B41" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -15153,7 +15183,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>46. ​​What tools the company uses for software reuse?</v>
       </c>
-      <c r="G41" s="14"/>
+      <c r="G41" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -15223,27 +15255,27 @@
     </row>
     <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="B42" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software organization and team sizeQ3</v>
+        <v>Previous development of reusable assetsQ25</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F42" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>5. Company size:</v>
+        <v>41. At what point is reusable artifacts developed for software projects?</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="L42"/>
       <c r="M42"/>
@@ -15314,27 +15346,27 @@
     </row>
     <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="B43" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Product family approachQ30</v>
+        <v>Origin of the reused assetsQ23</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F43" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>47. What related products that are developed in your organization?</v>
+        <v>38. In your company, what is the origin of the artifacts of the / the project (s)?</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>131</v>
+        <v>656</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -15405,27 +15437,27 @@
     </row>
     <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="B44" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Domain EngineeringQ31.1</v>
+        <v>Specific function in the software reuse processQ24.1</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>33</v>
+        <v>64</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>467</v>
       </c>
       <c r="F44" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>48. We conduct market analysis to determine which domains effectively be modeled and reusable components will be developed.</v>
+        <v>39. Does the company have a role dedicated to the creation of reusable artifacts?</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>132</v>
+        <v>657</v>
       </c>
       <c r="L44"/>
       <c r="M44"/>
@@ -15496,7 +15528,7 @@
     </row>
     <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="B45" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -15515,7 +15547,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>49. capture, they specify, analyze and review the requirements taking into account the differences between various products</v>
       </c>
-      <c r="G45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -15585,7 +15619,7 @@
     </row>
     <row r="46" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="B46" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -15604,7 +15638,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>50. In designing an architecture differences are taken into account among several products</v>
       </c>
-      <c r="G46" s="14"/>
+      <c r="G46" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -15689,9 +15725,11 @@
       </c>
       <c r="F47" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>51.¿Qué barriers have prevented a good reuse of software in your company?</v>
-      </c>
-      <c r="G47" s="14"/>
+        <v>51.¿What barriers have prevented a good reuse of software in your company?</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -15778,7 +15816,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>52. Which of the following benefits associated with software reuse are most important?</v>
       </c>
-      <c r="G48" s="14"/>
+      <c r="G48" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -15848,7 +15888,7 @@
     </row>
     <row r="49" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="B49" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
@@ -15858,7 +15898,7 @@
         <v>118</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>55</v>
@@ -15867,7 +15907,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>53. Has heard talk about product lines management software reuse and variability? The software product lines refer to a set of systems that share characteristics that are developed from</v>
       </c>
-      <c r="G49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -15945,7 +15987,7 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>56</v>
@@ -15954,7 +15996,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>54. If your company uses another strategy for software reuse or has a different view, please explain.</v>
       </c>
-      <c r="G50" s="14"/>
+      <c r="G50" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -16024,27 +16068,27 @@
     </row>
     <row r="51" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="B51" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Application domainQ4</v>
+        <v>Software development approachQ11</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F51" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>6. To market the company offers its products and / or services:</v>
+        <v>13. Which of the following methods, methodologies and practices used in the company's software development process?</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>129</v>
+        <v>658</v>
       </c>
       <c r="L51"/>
       <c r="M51"/>
@@ -16115,27 +16159,27 @@
     </row>
     <row r="52" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="B52" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Quality models usageQ5</v>
+        <v>Software development approachQ12</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>440</v>
+        <v>86</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F52" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>7. What systematic approach (quality model) software uses or owns the company?</v>
+        <v>14. Which of the following programming paradigms used in projects in general ?:</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>140</v>
+        <v>658</v>
       </c>
       <c r="L52"/>
       <c r="M52"/>
@@ -16223,7 +16267,9 @@
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
         <v>8. What services associated with software development company offering?</v>
       </c>
-      <c r="G53" s="14"/>
+      <c r="G53" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
@@ -16293,27 +16339,27 @@
     </row>
     <row r="54" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="B54" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Kind of software developedQ7</v>
+        <v>Programming languageQ13</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F54" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>9. What is the purpose and type of software built in the company ?:</v>
+        <v>15. Which of the following programming languages ​​are used in the back-end and front-end for software projects?</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>130</v>
+        <v>659</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -16384,27 +16430,27 @@
     </row>
     <row r="55" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="B55" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Software organization and team sizeQ8</v>
+        <v>Repository systems usageQ28</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F55" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>10. Average people who make a software project:</v>
+        <v>45. The support of the repository is effective and efficient software reuse.</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>133</v>
+        <v>660</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -16475,27 +16521,27 @@
     </row>
     <row r="56" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="B56" s="14" t="str">
         <f>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</f>
-        <v>Project team experienceQ9</v>
+        <v>CASE Tools usageQ16.4</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F56" s="14" t="str">
         <f>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</f>
-        <v>11. The average experience of the / the software development teams is: Note: If your company's experience development teams distributed depending on the complexity or size of projects, you can select several options.</v>
+        <v>22. The tools (language, frameworks, repositories, etc.) that the company uses have promoted the reuse / projects.</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>134</v>
+        <v>661</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -16797,258 +16843,258 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -17073,13 +17119,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="B1" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="C1" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -17087,10 +17133,10 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17098,10 +17144,10 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17109,10 +17155,10 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17120,10 +17166,10 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17131,10 +17177,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -17142,10 +17188,10 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Proyectos GitHub\SoftwareReuse_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luisa Restrepo\Desktop\Proyectos GitHub\SoftwareReuse_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D33BF-A09D-4EF1-91D9-494FC8EEF70C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86520F-D233-4DFF-9A0D-251362994465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="600" windowWidth="13695" windowHeight="10920" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="666">
   <si>
     <t>respondent_id</t>
   </si>
@@ -2024,6 +2023,15 @@
   </si>
   <si>
     <t>Associated Research Question</t>
+  </si>
+  <si>
+    <t>Variable Type</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
@@ -2328,7 +2336,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2624,57 +2641,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:E58" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:E58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:F58" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F58">
     <sortCondition ref="A1:A58"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Question Identifier" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Question type" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Question Spanish" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{82937DDA-D9FC-4287-921B-A1AF2D7B4719}" name="Question English" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Answers options" dataDxfId="16"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Question Identifier" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Question type" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Question Spanish" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{82937DDA-D9FC-4287-921B-A1AF2D7B4719}" name="Question English" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{28CB06A4-EE87-47DD-91CD-F6A69177AAF4}" name="Variable Type" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Answers options" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:E143" totalsRowShown="0" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:E143" totalsRowShown="0" tableBorderDxfId="16">
   <autoFilter ref="A1:E143" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D143">
     <sortCondition ref="A1:A143"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="#" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C0E89F5C-EC9D-4EC0-A0E6-94D32E390030}" name="Question Identifier" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Answer Identifier" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ANSWER SPANISH" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{5A70E9DB-C552-4874-BE47-34EDAAEDDD92}" name="ANSWER ENGLISH" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="#" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{C0E89F5C-EC9D-4EC0-A0E6-94D32E390030}" name="Question Identifier" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Answer Identifier" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ANSWER SPANISH" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{5A70E9DB-C552-4874-BE47-34EDAAEDDD92}" name="ANSWER ENGLISH" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2" displayName="Table2" ref="A2:G56" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2" displayName="Table2" ref="A2:G56" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:G56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:G56">
     <sortCondition ref="G2:G56"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Dimension" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{58064347-6C0F-49BF-82E0-D7BB70900D52}" name="Column1" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Dimension" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{58064347-6C0F-49BF-82E0-D7BB70900D52}" name="Column1" dataDxfId="7">
       <calculatedColumnFormula>+CONCATENATE(Table2[[#This Row],[Factor]],Table2[[#This Row],[Question Identifier]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Factor" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Orden" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Question Identifier" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Question" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Factor" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Orden" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Question Identifier" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Question" dataDxfId="3">
       <calculatedColumnFormula>+VLOOKUP(Table2[[#This Row],[Question Identifier]],Table4[[Question Identifier]:[Question English]],4,)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{88E61EA0-31C1-40F1-9E3A-FF520DEDA63B}" name="Associated Research Question" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{88E61EA0-31C1-40F1-9E3A-FF520DEDA63B}" name="Associated Research Question" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2685,7 +2703,7 @@
   <autoFilter ref="A1:C9" xr:uid="{D135F127-0B74-43D8-B995-75C65C50232E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F9B95BF4-B40B-4F50-B485-EB192145AFFF}" name="Question Identifier"/>
-    <tableColumn id="4" xr3:uid="{6F1BA106-045C-4081-B97A-B11DC398A6FA}" name="Categories created Spanish" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{6F1BA106-045C-4081-B97A-B11DC398A6FA}" name="Categories created Spanish" dataDxfId="1">
       <calculatedColumnFormula>+CONCATENATE(B14:F14)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{7996DAD0-94CC-4AEB-B84A-82A7711A0D7D}" name="Categories created English"/>
@@ -2979,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,12 +3008,13 @@
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>485</v>
       </c>
@@ -3009,10 +3028,13 @@
         <v>490</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
@@ -3025,9 +3047,12 @@
       <c r="D2" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
@@ -3040,9 +3065,12 @@
       <c r="D3" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
@@ -3055,9 +3083,12 @@
       <c r="D4" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>255</v>
       </c>
@@ -3070,9 +3101,12 @@
       <c r="D5" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
@@ -3085,11 +3119,14 @@
       <c r="D6" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>43</v>
       </c>
@@ -3102,11 +3139,14 @@
       <c r="D7" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F7" s="14">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -3119,11 +3159,14 @@
       <c r="D8" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F8" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
@@ -3136,11 +3179,14 @@
       <c r="D9" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F9" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>58</v>
       </c>
@@ -3153,8 +3199,11 @@
       <c r="D10" s="14" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>65</v>
       </c>
@@ -3167,9 +3216,12 @@
       <c r="D11" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>59</v>
       </c>
@@ -3182,9 +3234,12 @@
       <c r="D12" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
@@ -3197,11 +3252,14 @@
       <c r="D13" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F13" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
@@ -3214,11 +3272,14 @@
       <c r="D14" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F14" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>17</v>
       </c>
@@ -3231,11 +3292,14 @@
       <c r="D15" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F15" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>18</v>
       </c>
@@ -3248,11 +3312,14 @@
       <c r="D16" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F16" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>19</v>
       </c>
@@ -3265,11 +3332,14 @@
       <c r="D17" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F17" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
@@ -3282,11 +3352,14 @@
       <c r="D18" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F18" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>21</v>
       </c>
@@ -3299,11 +3372,14 @@
       <c r="D19" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F19" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>22</v>
       </c>
@@ -3316,11 +3392,14 @@
       <c r="D20" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F20" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>66</v>
       </c>
@@ -3333,9 +3412,12 @@
       <c r="D21" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>46</v>
       </c>
@@ -3348,11 +3430,14 @@
       <c r="D22" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F22" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>36</v>
       </c>
@@ -3365,11 +3450,14 @@
       <c r="D23" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F23" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>47</v>
       </c>
@@ -3382,11 +3470,14 @@
       <c r="D24" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F24" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>48</v>
       </c>
@@ -3399,11 +3490,14 @@
       <c r="D25" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F25" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>23</v>
       </c>
@@ -3416,11 +3510,14 @@
       <c r="D26" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F26" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>24</v>
       </c>
@@ -3433,11 +3530,14 @@
       <c r="D27" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F27" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>25</v>
       </c>
@@ -3450,11 +3550,14 @@
       <c r="D28" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F28" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>26</v>
       </c>
@@ -3467,11 +3570,14 @@
       <c r="D29" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F29" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>27</v>
       </c>
@@ -3484,11 +3590,14 @@
       <c r="D30" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F30" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>28</v>
       </c>
@@ -3501,11 +3610,14 @@
       <c r="D31" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F31" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>29</v>
       </c>
@@ -3518,11 +3630,14 @@
       <c r="D32" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F32" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>49</v>
       </c>
@@ -3535,11 +3650,14 @@
       <c r="D33" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F33" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>467</v>
       </c>
@@ -3552,11 +3670,14 @@
       <c r="D34" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F34" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>468</v>
       </c>
@@ -3569,11 +3690,14 @@
       <c r="D35" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F35" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>51</v>
       </c>
@@ -3586,11 +3710,14 @@
       <c r="D36" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F36" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>30</v>
       </c>
@@ -3603,11 +3730,14 @@
       <c r="D37" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F37" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>60</v>
       </c>
@@ -3620,9 +3750,12 @@
       <c r="D38" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>31</v>
       </c>
@@ -3635,11 +3768,14 @@
       <c r="D39" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F39" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>32</v>
       </c>
@@ -3652,11 +3788,14 @@
       <c r="D40" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F40" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>61</v>
       </c>
@@ -3669,9 +3808,12 @@
       <c r="D41" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>13</v>
       </c>
@@ -3684,11 +3826,14 @@
       <c r="D42" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F42" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>52</v>
       </c>
@@ -3701,11 +3846,14 @@
       <c r="D43" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F43" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>33</v>
       </c>
@@ -3718,11 +3866,14 @@
       <c r="D44" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F44" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>34</v>
       </c>
@@ -3735,11 +3886,14 @@
       <c r="D45" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F45" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>35</v>
       </c>
@@ -3752,11 +3906,14 @@
       <c r="D46" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F46" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>53</v>
       </c>
@@ -3769,11 +3926,14 @@
       <c r="D47" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F47" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>54</v>
       </c>
@@ -3786,11 +3946,14 @@
       <c r="D48" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F48" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>55</v>
       </c>
@@ -3803,11 +3966,14 @@
       <c r="D49" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F49" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>56</v>
       </c>
@@ -3820,9 +3986,12 @@
       <c r="D50" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>37</v>
       </c>
@@ -3835,11 +4004,14 @@
       <c r="D51" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F51" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>38</v>
       </c>
@@ -3852,11 +4024,14 @@
       <c r="D52" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F52" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>39</v>
       </c>
@@ -3869,11 +4044,14 @@
       <c r="D53" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F53" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>40</v>
       </c>
@@ -3886,11 +4064,14 @@
       <c r="D54" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F54" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>14</v>
       </c>
@@ -3903,9 +4084,12 @@
       <c r="D55" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="E55" s="14"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>41</v>
       </c>
@@ -3918,11 +4102,14 @@
       <c r="D56" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F56" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>0</v>
       </c>
@@ -3935,9 +4122,12 @@
       <c r="D57" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>9</v>
       </c>
@@ -3950,7 +4140,10 @@
       <c r="D58" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F58" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3966,7 +4159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -6708,7 +6901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:BY59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
